--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="因子列表" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="240">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上午和下午的委买比值对比（（累计上午总委买）/（累计上午总委买+累计上午总委卖））/（（累计下午总委买）/（累计下午总委买+累计下午总委卖））</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上午委买委卖和下午委买委卖的比值（每天更新一次）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,19 +113,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>思路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_001_TOTAL_COMMISSION_RATIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,14 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天的大单占比累计因子值与昨天同时段累计大单因子值对比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天的大单占比累计因子值与前五天同时段均值大单因子值对比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今天的中单占比累计因子值与昨天同时段累计中单因子值对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ma（现货50卖一买一委比值）/ma（现货300卖一买一委比值，或者5挡10挡，全部档位的比值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>委比和价格的相关系数，委比分全部，10档5档1档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,10 +271,6 @@
   </si>
   <si>
     <t>如果成交价格&gt;=卖一价格，在计算是否有大单，则把大单成交量计入外盘，如果成交价&lt;=买一价格，在计算是否有大单，则把大单成交量计入内盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单薄韧性，考虑被吃掉的挂单回复度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,10 +304,6 @@
   <si>
     <t>性能</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>和段兄确认下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>和段兄确认下：15分瞬时值还是累加值</t>
@@ -413,14 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每天开盘3分钟，5分钟总委买/（总委买+总委卖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和段兄确认下：瞬时值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ready</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,10 +405,6 @@
   </si>
   <si>
     <t>不跨天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接用指数计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -489,14 +444,6 @@
       </rPr>
       <t>+委买额）/（上涨成交额+委买额+下跌成交额+委卖额）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_016_AMOUNT_AND_COMMISSION_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_018_UNTRADED_STOCK_RATIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -560,23 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(合计委买-三天均值)/20天std</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日累加
-rolling累加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前买卖量5挡，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，ma（大挂买单额累加）/5档委买+5档委卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上，只是改为5-10档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-10档之间有超过三天均值1.5倍以上的挂单ma（大挂买单累加）/6-10档委买+6-10档委卖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,41 +545,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ma（当前成交量/委卖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma（当前成交量/委买）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在股票维度先求成交量和委买/委卖之和，再求比值和均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>先时间轴求std，再在股票维度求和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ln(ma（现货卖一买一委比值）/ma（期货卖一买一委比值）)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ready</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>和段兄讨论下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和段兄讨论下。是否要多个模型？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30-10:00的委买差/9:30-10:00的成交额
-委买差现在股票维度求和，成交额用指数记算
-需要和段兄确认指数成交额是不是成分股成交额加权求和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果上涨，累加上涨成交量，如果下跌，累加下跌成交量，（上涨-下跌)/总成交量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（ask-bid）/（ask+bid），股票和期指都可以有这个指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,23 +618,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_019_DAILY_ACCUMULATED_LARGE_ORDER_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_024_RISING_LIMIT_STOCK_PROPORTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_025_FALLING_LIMIT_STOCK_PROPORTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FCT_02_022_OVER_NIGHT_YIELD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_020_ROLLING_ACCUMULATED_LARGE_ORDER_RATIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -807,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_017_RISING_FALLING_VOLUME_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>volume', 'price', 'delta_price'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,10 +745,6 @@
   </si>
   <si>
     <t>'price'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_007_SPREAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1004,6 +880,291 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma（当前成交额/委卖）总，10档，5档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma（当前成交额/委买）总，10档，5档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_032_TOTAL_COMMISSION_VOLATILITY_RATIO
+FCT_02_033_10_GRADE_COMMISSION_VOLATILITY_RATIO
+FCT_02_034_5_GRADE_COMMISSION_VOLATILITY_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算5天成交额的mean和std，对于股票维度两种思路：先求占比，再求平均（这样不考虑权重）；先求大单和交易额之和，再求占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单成交额占比，分为买和卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日内最大成交量出现的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要和段兄确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现货因子设计实现考虑的问题：
+1. 因子分类，按是否实时和跨天分为1类，2类和3类因子
+2. 时间轴和股票轴如何处理？
+   计算先后顺序
+   对于时间轴，如果rolling逻辑，盘前集合竞价以及初始数据的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟平均单笔成交额q分位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先计算每个tick的比值（在股票维度做聚合运算），上下午各求平均，下午-上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天开盘3分钟，5分钟总委买/（总委买+总委卖），算法同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接用指数计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(合计委买-合计委买的三天均值)/合计委买的20天std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上，只是改为6-10档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票维度累加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前买卖量5档，合计委卖量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂卖单额累/5档委买+5档委卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的成交大单占比累计因子值与前五天同时段成交大单占比累计因子值的均值对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的成交大单占比累计因子值与昨天同时段成交大单占比累计因子值对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段求均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以分别计算总委比，10档，5档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(成交量 - mean(3))/std(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma（现货50卖一买一委比值）- ma（现货300卖一买一委比值，或者5挡10挡，全部档位的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma（现货卖一买一委比值）- ma（期货卖一买一委比值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和段兄讨论下。是否要多个模型？后续考虑和1000比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单薄韧性，考虑被吃掉的挂单回复度，价格弹性来定义，考虑直接在指数上做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:00的委买差/9:30-10:00的成交额
+委买差现在股票维度求和，成交额用指数记算
+需要和段兄确认指数成交额是不是成分股成交额加权求和-没有加权直接求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（远期 - 近期）/近期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期可以用现货指数代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果上涨，累加上涨成交额，如果下跌，累加下跌成交额，（上涨-下跌)/总成交额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_017_RISING_FALLING_AMOUNT_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_018_UNTRADED_STOCK_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_001_TOTAL_COMMISSION_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_grade_bid_amount', '10_grade_ask_amount'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接计算好10档委买委卖到股票文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_grade_bid_amount', '5_grade_ask_amount'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接计算好5档委买委卖到股票文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_016_AMOUNT_AND_COMMISSION_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_019_DAILY_ACCUMULATED_LARGE_ORDER_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总委比差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_035_TOTAL_COMMISSION_RATIO_DIFFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞后系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_020_ROLLING_ACCUMULATED_LARGE_ORDER_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_026_AMOUNT_ASK_TOTAL_COMMISSION_RATIO
+FCT_02_028_AMOUNT_ASK_10_GRADE_COMMISSION_RATIO
+FCT_02_030_AMOUNT_ASK_5_GRADE_COMMISSION_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_027_AMOUNT_BID_TOTAL_COMMISSION_RATIO
+FCT_02_029_AMOUNT_BID_10_GRADE_COMMISSION_RATIO
+FCT_02_031_AMOUNT_BID_5_GRADE_COMMISSION_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以与FCT_02_021_DELTA_TOTAL_COMMISSION_RATIO
+进行比较，从逻辑上和性能上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在股票维度先求成交额和委买/委卖之和，再求比值和均值,初始滑动窗口处理，对之前求平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_024_RISING_LIMIT_STOCK_PROPORTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_025_FALLING_LIMIT_STOCK_PROPORTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_007_SPREAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price', 'close'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_002_10_GRADE_COMMISSION_RATIO_DIFFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十档差分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1246,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,6 +1277,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1131,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,17 +1365,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,1156 +1728,1509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
-    <col min="2" max="2" width="39.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="4" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="13" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" ht="14.25">
+      <c r="A1" s="34">
+        <v>6</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="D1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="40.5">
+        <v>94</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="40.5">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M3">
+        <v>644.51521219999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="54">
+      <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>227</v>
+      </c>
+      <c r="M4">
+        <v>43.214883800000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="243">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5">
+        <v>3749.9206562999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="243">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8">
+        <v>3775.644515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="108">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9">
+        <v>2259.9811599999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="108">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11">
+        <v>2259.1909943999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="256.5">
+      <c r="A12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12">
+        <v>4657.8898304000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="27">
+      <c r="A14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14">
+        <v>626.77718359999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="27">
+      <c r="A15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="1">
+        <v>566.8946158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="81">
+      <c r="A16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16">
+        <v>955.34715940000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="27">
+      <c r="A17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17">
+        <v>1130.118056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="94.5">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="10" customFormat="1">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" s="10" customFormat="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s">
+        <v>227</v>
+      </c>
+      <c r="M21" s="8">
+        <v>457.108951399999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="40.5">
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B23" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B24" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="8" customFormat="1" ht="27">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" s="8">
+        <v>514.53126239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="10" customFormat="1" ht="27">
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="8" customFormat="1" ht="40.5">
+      <c r="A28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="F28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="8">
+        <v>839.15660130000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="25" customFormat="1" ht="40.5">
+      <c r="B29" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="27">
+      <c r="A30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30">
+        <v>369.89989050000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="25" customFormat="1">
+      <c r="B31" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="40.5">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1603.5969289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="27">
+      <c r="A33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1620.3955997999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="40.5">
+      <c r="A34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3">
-        <v>644.51521219999995</v>
-      </c>
-      <c r="L3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="243">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1687.0529958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="40.5">
+      <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4">
-        <v>3749.9206562999998</v>
-      </c>
-      <c r="L4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="243">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5">
-        <v>3775.644515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="108">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="B35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6">
-        <v>2259.9811599999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="108">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7">
-        <v>2259.1909943999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="256.5">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8">
-        <v>4657.8898304000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27">
-      <c r="A9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K9">
-        <v>626.77718359999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="27">
-      <c r="A10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="M35" s="3">
+        <v>6276.4550690999904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="243">
+      <c r="A36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="1">
-        <v>566.8946158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="81">
-      <c r="A11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11">
-        <v>955.34715940000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="27">
-      <c r="A12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="M36" s="3">
+        <v>6252.9546962000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="108">
+      <c r="A37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="94.5">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="8">
-        <v>457.108951399999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="40.5">
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" ht="54">
-      <c r="B18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="6" customFormat="1" ht="27">
-      <c r="B19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" ht="27">
-      <c r="B20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="27">
-      <c r="A21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="8">
-        <v>514.53126239999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="27">
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="40.5">
-      <c r="A23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="E23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="40.5">
-      <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="27">
-      <c r="A25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25">
-        <v>369.89989050000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="40.5">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1603.5969289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="27">
-      <c r="A28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1620.3955997999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="40.5">
-      <c r="A29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1687.0529958</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="40.5">
-      <c r="A30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K30" s="3">
-        <v>6276.4550690999904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="243">
-      <c r="A31" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K31" s="3">
-        <v>6252.9546962000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="108">
-      <c r="A32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="40.5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="27">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="27">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="40.5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="40.5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="24" customFormat="1" ht="27">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="F41" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="40.5">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="3" customFormat="1">
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="27">
+      <c r="B47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="27">
+      <c r="B48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="27">
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
+        <v>198</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="27">
+      <c r="B50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s">
+        <v>198</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="B51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="40.5">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="40.5">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M52">
+        <v>99.582290900000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="10" customFormat="1" ht="40.5">
+      <c r="B53" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="J53" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="10" customFormat="1" ht="54">
+      <c r="B54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="J54" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="25" customFormat="1" ht="40.5">
+      <c r="B55" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:13" s="25" customFormat="1">
+      <c r="B56" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" t="s">
+        <v>124</v>
+      </c>
+      <c r="J57" t="s">
+        <v>106</v>
+      </c>
+      <c r="M57">
+        <v>717.36039059999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" t="s">
+        <v>124</v>
+      </c>
+      <c r="J58" t="s">
+        <v>106</v>
+      </c>
+      <c r="M58">
+        <v>757.39374190000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="40.5">
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+      <c r="J59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="B60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="J60" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="67.5">
+      <c r="A61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G61" s="28"/>
+      <c r="H61" s="15"/>
+      <c r="I61" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="J61" t="s">
+        <v>66</v>
+      </c>
+      <c r="K61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="67.5">
+      <c r="A62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" s="31"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="15"/>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="10" customFormat="1" ht="40.5">
+      <c r="B63" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:13" ht="67.5">
+      <c r="A64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="27">
+      <c r="B65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="27">
+      <c r="B66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="27">
+      <c r="B67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="40.5">
+      <c r="B68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" s="6" customFormat="1" ht="67.5">
+      <c r="B69" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="2:10" s="6" customFormat="1">
+      <c r="B70" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:10" s="6" customFormat="1">
+      <c r="B71" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:10" ht="40.5">
+      <c r="B72" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" s="25" customFormat="1">
+      <c r="B73" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="74" spans="2:10" s="6" customFormat="1">
+      <c r="B74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:10" s="6" customFormat="1" ht="27">
+      <c r="B75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:10" s="6" customFormat="1" ht="27">
+      <c r="B76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:10" ht="40.5">
+      <c r="B77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
+        <v>177</v>
+      </c>
+      <c r="J77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="C78" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1">
-      <c r="B40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="27">
-      <c r="B41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="27">
-      <c r="B42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="27">
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="27">
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="54">
-      <c r="A46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="40.5">
-      <c r="B47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="54">
-      <c r="B48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" ht="40.5">
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G50" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" t="s">
-        <v>147</v>
-      </c>
-      <c r="H51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="40.5">
-      <c r="B52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" ht="27">
-      <c r="B53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="15"/>
-      <c r="G55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="40.5">
-      <c r="B56" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="27">
-      <c r="B57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="27">
-      <c r="B58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="27">
-      <c r="B59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="27">
-      <c r="B60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="40.5">
-      <c r="B61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="67.5">
-      <c r="B62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="40.5">
-      <c r="B65" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="27">
-      <c r="B68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="27">
-      <c r="B69" s="1" t="s">
-        <v>62</v>
+      <c r="D78" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="C79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="11">
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I1:K2">
+  <conditionalFormatting sqref="K1:N2">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"block"</formula>
     </cfRule>
@@ -2677,28 +3242,416 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:H37"/>
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="248">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（ask-bid）/（ask+bid），股票和期指都可以有这个指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,11 +783,6 @@
   <si>
     <t>bid_price1', 'bid_volume1', 'bid_price2', 'bid_volume2','bid_price3', 'bid_volume3','bid_price4', 'bid_volume4','bid_price5', 'bid_volume5',
                              'ask_price1', 'ask_volume1', 'ask_price2', 'ask_volume2', 'ask_price3', 'ask_volume3','ask_price4', 'ask_volume4','ask_price5', 'ask_volume5'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_013_ASK_LARGE_AMOUNT_BILL
-FCT_02_014_BID_LARGE_AMOUNT_BILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1164,7 +1155,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十档差分</t>
+    <t>十档委比差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五档委比差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_038_DAILY_RISING_STOCK_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上涨股票比例，按当天开盘价计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动时间窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_013_ASK_LARGE_AMOUNT_BILL
+FCT_02_014_BID_LARGE_AMOUNT_BILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（bid-ask）/（ask+bid），股票和期指都可以有这个指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按个股计算3天总成交额/总成交笔数，得到平均单笔成交笔数
+按个股标记当天tick是买入/卖出大单
+按股票维度累加买入和卖出大单，计算当天tick的买入大单/卖出大单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_039_LARGE_ORDER_BID_ASK_VOLUME_RATIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,6 +1432,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1412,9 +1449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,11 +1762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1749,54 +1783,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25">
-      <c r="A1" s="34">
+      <c r="A1" s="35">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="14.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="30"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="5" t="s">
         <v>94</v>
       </c>
@@ -1807,21 +1841,21 @@
         <v>71</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="40.5">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -1833,7 +1867,7 @@
         <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M3">
         <v>644.51521219999995</v>
@@ -1841,16 +1875,16 @@
     </row>
     <row r="4" spans="1:14" ht="54">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" t="s">
@@ -1863,7 +1897,7 @@
         <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M4">
         <v>43.214883800000003</v>
@@ -1877,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -1898,16 +1932,16 @@
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>217</v>
-      </c>
       <c r="I6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J6" t="s">
         <v>66</v>
@@ -1916,19 +1950,28 @@
         <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="I7" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="243">
@@ -1940,7 +1983,7 @@
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -1963,10 +2006,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -1984,13 +2027,13 @@
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -2002,19 +2045,17 @@
         <v>95</v>
       </c>
       <c r="L10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="108">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="16" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -2022,79 +2063,70 @@
       <c r="J11" t="s">
         <v>66</v>
       </c>
-      <c r="K11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11">
-        <v>2259.1909943999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="256.5">
+    </row>
+    <row r="12" spans="1:14" ht="108">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
         <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M12">
-        <v>4657.8898304000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1"/>
-      <c r="F13" s="13"/>
+        <v>2259.1909943999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="256.5">
+      <c r="A13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="G13" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="H13" s="17"/>
+        <v>212</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="27">
-      <c r="A14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="18" t="s">
-        <v>140</v>
-      </c>
+      <c r="M13">
+        <v>4657.8898304000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="17"/>
       <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2104,475 +2136,458 @@
       <c r="K14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L14" t="s">
-        <v>227</v>
-      </c>
-      <c r="M14">
-        <v>626.77718359999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="27">
+    </row>
+    <row r="15" spans="1:14" ht="27">
       <c r="A15" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>142</v>
+        <v>76</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15">
+        <v>626.77718359999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L15" t="s">
-        <v>227</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="L16" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="1">
         <v>566.8946158</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="81">
-      <c r="A16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:13" ht="81">
+      <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J17" t="s">
         <v>145</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M17">
+        <v>955.34715940000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="M16">
-        <v>955.34715940000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="27">
-      <c r="A17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="I18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18">
+        <v>1130.118056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="67.5">
+      <c r="A19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="94.5">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="10" customFormat="1">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" s="10" customFormat="1">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17">
-        <v>1130.118056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="94.5">
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="K23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" s="8">
+        <v>457.108951399999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:13" s="6" customFormat="1" ht="40.5">
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B26" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="10" customFormat="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" s="10" customFormat="1">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="C26" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B27" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" ht="27">
+      <c r="A29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="8">
+        <v>514.53126239999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="10" customFormat="1" ht="27">
+      <c r="B30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="8" customFormat="1" ht="40.5">
+      <c r="A31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8" t="s">
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="F31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="8">
+        <v>839.15660130000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="25" customFormat="1" ht="40.5">
+      <c r="B32" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="27">
+      <c r="A33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" t="s">
-        <v>227</v>
-      </c>
-      <c r="M21" s="8">
-        <v>457.108951399999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" ht="40.5">
-      <c r="B22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B23" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B24" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="8" customFormat="1" ht="27">
-      <c r="A26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="18" t="s">
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="M26" s="8">
-        <v>514.53126239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="10" customFormat="1" ht="27">
-      <c r="B27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="F27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="8" customFormat="1" ht="40.5">
-      <c r="A28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="F28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" s="8">
-        <v>839.15660130000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="25" customFormat="1" ht="40.5">
-      <c r="B29" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="27">
-      <c r="A30" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" t="s">
-        <v>227</v>
-      </c>
-      <c r="M30">
-        <v>369.89989050000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="25" customFormat="1">
-      <c r="B31" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1603.5969289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" ht="27">
-      <c r="A33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="18" t="s">
-        <v>163</v>
       </c>
       <c r="I33" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1620.3955997999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3" t="s">
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33">
+        <v>369.89989050000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="25" customFormat="1">
+      <c r="B34" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1687.0529958</v>
+      <c r="F34" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" ht="40.5">
       <c r="A35" s="1" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>168</v>
+      <c r="F35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -2581,18 +2596,18 @@
         <v>68</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="M35" s="3">
-        <v>6276.4550690999904</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="3" customFormat="1" ht="243">
+        <v>1603.5969289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="27">
       <c r="A36" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="3" t="s">
@@ -2600,8 +2615,8 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="19" t="s">
-        <v>157</v>
+      <c r="H36" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
@@ -2610,614 +2625,700 @@
         <v>68</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="M36" s="3">
-        <v>6252.9546962000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="108">
+        <v>1620.3955997999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="40.5">
       <c r="A37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="19" t="s">
-        <v>158</v>
+      <c r="F37" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="27">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="J37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1687.0529958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="3" customFormat="1" ht="40.5">
+      <c r="A38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="I38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="40.5">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>194</v>
+        <v>21</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" s="3">
+        <v>6276.4550690999904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="243">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="40.5">
-      <c r="A40" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" s="3">
+        <v>6252.9546962000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="108">
+      <c r="A40" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>194</v>
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="24" customFormat="1" ht="27">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23" t="s">
+    <row r="41" spans="1:13" ht="27">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="40.5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="40.5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I43" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="24" customFormat="1" ht="27">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="F41" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24" t="s">
+      <c r="C44" s="23"/>
+      <c r="F44" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="J44" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
+    <row r="45" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="J42" s="7" t="s">
+      <c r="C45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="J45" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
+    <row r="46" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="J43" s="7" t="s">
+      <c r="C46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="J46" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="6" customFormat="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
+    <row r="47" spans="1:13" s="6" customFormat="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="J44" s="7" t="s">
+      <c r="C47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="J47" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="40.5">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="1:13" ht="40.5">
+      <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="H48" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="3" customFormat="1">
-      <c r="B46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="27">
-      <c r="B47" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I47" t="s">
-        <v>198</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="27">
-      <c r="B48" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I48" t="s">
-        <v>198</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="27">
-      <c r="B49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s">
-        <v>198</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>67</v>
+    <row r="49" spans="1:13" s="3" customFormat="1">
+      <c r="B49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="27">
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>195</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="I50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="27">
       <c r="B51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="40.5">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:13" ht="27">
+      <c r="B52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="27">
+      <c r="B53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="40.5">
+      <c r="A55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M55">
+        <v>99.582290900000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="10" customFormat="1" ht="40.5">
+      <c r="B56" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="J56" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="10" customFormat="1" ht="54">
+      <c r="B57" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="J57" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="25" customFormat="1" ht="40.5">
+      <c r="B58" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:13" s="25" customFormat="1">
+      <c r="B59" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M52">
-        <v>99.582290900000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="10" customFormat="1" ht="40.5">
-      <c r="B53" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="J53" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="10" customFormat="1" ht="54">
-      <c r="B54" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="J54" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="25" customFormat="1" ht="40.5">
-      <c r="B55" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="56" spans="1:13" s="25" customFormat="1">
-      <c r="B56" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="I60" t="s">
         <v>124</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J60" t="s">
         <v>106</v>
       </c>
-      <c r="M57">
+      <c r="M60">
         <v>717.36039059999996</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H58" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H61" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" t="s">
         <v>124</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J61" t="s">
         <v>106</v>
       </c>
-      <c r="M58">
+      <c r="M61">
         <v>757.39374190000001</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="40.5">
-      <c r="B59" s="1" t="s">
+    <row r="62" spans="1:13" ht="40.5">
+      <c r="B62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I62" t="s">
         <v>86</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="B60" s="7" t="s">
+    <row r="63" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="B63" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="J60" s="6" t="s">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="J63" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="67.5">
-      <c r="A61" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="15"/>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>66</v>
-      </c>
-      <c r="K61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="67.5">
-      <c r="A62" s="1" t="s">
+    <row r="64" spans="1:13" ht="40.5">
+      <c r="A64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="15"/>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="10" customFormat="1" ht="40.5">
-      <c r="B63" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:13" ht="67.5">
-      <c r="A64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="G64" s="28"/>
+      <c r="H64" s="15"/>
       <c r="I64" t="s">
         <v>21</v>
       </c>
       <c r="J64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" ht="27">
+      <c r="K64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="40.5">
+      <c r="A65" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="B65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="15"/>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="10" customFormat="1" ht="40.5">
+      <c r="B66" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:10" ht="40.5">
+      <c r="A67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="27">
+      <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="27">
+      <c r="B69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="27">
+      <c r="B70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="40.5">
+      <c r="B71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="27">
-      <c r="B66" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="1" t="s">
+    </row>
+    <row r="72" spans="1:10" s="6" customFormat="1" ht="67.5">
+      <c r="B72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="F72" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="I66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="27">
-      <c r="B67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="40.5">
-      <c r="B68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" s="6" customFormat="1" ht="67.5">
-      <c r="B69" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="F69" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="2:10" s="6" customFormat="1">
-      <c r="B70" s="7" t="s">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" s="6" customFormat="1">
+      <c r="B73" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="2:10" s="6" customFormat="1">
-      <c r="B71" s="7" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" s="6" customFormat="1">
+      <c r="B74" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="2:10" ht="40.5">
-      <c r="B72" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" s="25" customFormat="1">
-      <c r="B73" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-    </row>
-    <row r="74" spans="2:10" s="6" customFormat="1">
-      <c r="B74" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="2:10" s="6" customFormat="1" ht="27">
-      <c r="B75" s="7" t="s">
+    <row r="75" spans="1:10" ht="40.5">
+      <c r="B75" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="25" customFormat="1">
+      <c r="B76" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1">
+      <c r="B77" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" s="6" customFormat="1" ht="27">
+      <c r="B78" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="F75" s="7" t="s">
+      <c r="C78" s="7"/>
+      <c r="F78" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="2:10" s="6" customFormat="1" ht="27">
-      <c r="B76" s="7" t="s">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" s="6" customFormat="1" ht="27">
+      <c r="B79" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="2:10" ht="40.5">
-      <c r="B77" s="1" t="s">
+      <c r="C79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" ht="40.5">
+      <c r="B80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="J80" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" t="s">
         <v>179</v>
       </c>
-      <c r="D77" t="s">
-        <v>177</v>
-      </c>
-      <c r="J77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="C78" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D78" t="s">
-        <v>181</v>
-      </c>
-      <c r="F78" s="1" t="s">
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="C79" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" t="s">
-        <v>181</v>
+      <c r="D82" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F64:F65"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:M1"/>
@@ -3251,402 +3352,402 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="259">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1098,10 +1098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>滞后系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1151,10 +1147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_002_10_GRADE_COMMISSION_RATIO_DIFFERENCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>十档委比差分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1199,6 +1191,57 @@
   </si>
   <si>
     <t>FCT_02_039_LARGE_ORDER_BID_ASK_VOLUME_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十档委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十档委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,50,100,300,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_036_10_GRADE_COMMISSION_RATIO_DIFFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_037_5_GRADE_COMMISSION_RATIO_DIFFERENCE</t>
+  </si>
+  <si>
+    <t>FCT_02_040_10_GRADE_COMMISSION_RATIO_MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_041_10_GRADE_COMMISSION_RATIO_STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五档委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五档委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_042_5_GRADE_COMMISSION_RATIO_MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_043_5_GRADE_COMMISSION_RATIO_STD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1449,6 +1492,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,11 +1808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1796,7 +1842,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>30</v>
@@ -1867,7 +1913,7 @@
         <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M3">
         <v>644.51521219999995</v>
@@ -1881,7 +1927,7 @@
         <v>221</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>212</v>
@@ -1897,7 +1943,7 @@
         <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M4">
         <v>43.214883800000003</v>
@@ -1950,22 +1996,24 @@
         <v>95</v>
       </c>
       <c r="L6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="30"/>
+        <v>235</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="H7" s="16" t="s">
         <v>215</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
@@ -1974,66 +2022,50 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="243">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="37">
+        <v>50100300500</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="243">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="16" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M8">
-        <v>3775.644515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="108">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9">
-        <v>2259.9811599999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -2042,20 +2074,24 @@
         <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="M10">
+        <v>3775.644515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="108">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>212</v>
+      </c>
       <c r="H11" s="16" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -2063,17 +2099,23 @@
       <c r="J11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="108">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="30"/>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>2259.9811599999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>213</v>
+      </c>
       <c r="H12" s="16" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -2082,627 +2124,590 @@
         <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12">
-        <v>2259.1909943999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="256.5">
+        <v>95</v>
+      </c>
+      <c r="L12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>66</v>
       </c>
-      <c r="K13" t="s">
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="37">
+        <v>50100300500</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="108">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16">
+        <v>2259.1909943999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="256.5">
+      <c r="A17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
         <v>125</v>
       </c>
-      <c r="M13">
+      <c r="M17">
         <v>4657.8898304000004</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="30" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="1" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="27">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:13" ht="27">
+      <c r="A19" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="18" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L19" t="s">
+        <v>224</v>
+      </c>
+      <c r="M19">
+        <v>626.77718359999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="27">
+      <c r="A20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20" s="1">
+        <v>566.8946158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="81">
+      <c r="A21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21">
+        <v>955.34715940000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="M15">
-        <v>626.77718359999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="27">
-      <c r="A16" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M22">
+        <v>1130.118056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="67.5">
+      <c r="A23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="94.5">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="10" customFormat="1">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" t="s">
-        <v>225</v>
-      </c>
-      <c r="M16" s="1">
-        <v>566.8946158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="81">
-      <c r="A17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17">
-        <v>955.34715940000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="8">
+        <v>457.108951399999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18">
-        <v>1130.118056</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="67.5">
-      <c r="A19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="1" t="s">
+      <c r="K28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:13" s="6" customFormat="1" ht="40.5">
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B30" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="94.5">
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J30" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B31" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="10" customFormat="1">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" s="10" customFormat="1">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8" t="s">
+      <c r="J31" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="21" customFormat="1" ht="27">
+      <c r="B32" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" ht="27">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="8">
+        <v>514.53126239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="10" customFormat="1" ht="27">
+      <c r="B34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" ht="40.5">
+      <c r="A35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="F35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="8">
+        <v>839.15660130000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="25" customFormat="1" ht="40.5">
+      <c r="B36" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="27">
+      <c r="A37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" t="s">
-        <v>225</v>
-      </c>
-      <c r="M23" s="8">
-        <v>457.108951399999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:13" s="6" customFormat="1" ht="40.5">
-      <c r="B25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B26" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B27" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B28" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="8" customFormat="1" ht="27">
-      <c r="A29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="8">
-        <v>514.53126239999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="10" customFormat="1" ht="27">
-      <c r="B30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="F30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="8" customFormat="1" ht="40.5">
-      <c r="A31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="F31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" s="8">
-        <v>839.15660130000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="25" customFormat="1" ht="40.5">
-      <c r="B32" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="27">
-      <c r="A33" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H37" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" t="s">
-        <v>125</v>
-      </c>
-      <c r="L33" t="s">
-        <v>225</v>
-      </c>
-      <c r="M33">
-        <v>369.89989050000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="25" customFormat="1">
-      <c r="B34" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1603.5969289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="3" customFormat="1" ht="27">
-      <c r="A36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1620.3955997999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1687.0529958</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3" t="s">
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37">
+        <v>369.89989050000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="25" customFormat="1">
+      <c r="B38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M38" s="3">
-        <v>6276.4550690999904</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="243">
+      <c r="F38" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="40.5">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -2711,235 +2716,303 @@
         <v>68</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="M39" s="3">
-        <v>6252.9546962000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="108">
+        <v>1603.5969289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="3" customFormat="1" ht="27">
       <c r="A40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="19" t="s">
-        <v>157</v>
+      <c r="H40" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1620.3955997999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="3" customFormat="1" ht="40.5">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1687.0529958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="40.5">
+      <c r="A42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M42" s="3">
+        <v>6276.4550690999904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="3" customFormat="1" ht="243">
+      <c r="A43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" s="3">
+        <v>6252.9546962000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="108">
+      <c r="A44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="27">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+    <row r="45" spans="1:13" ht="27">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="40.5">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+    <row r="46" spans="1:13" ht="40.5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I46" t="s">
         <v>86</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="40.5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+    <row r="47" spans="1:13" ht="40.5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I47" t="s">
         <v>86</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="24" customFormat="1" ht="27">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23" t="s">
+    <row r="48" spans="1:13" s="24" customFormat="1" ht="27">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="C48" s="23"/>
+      <c r="F48" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24" t="s">
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="J48" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
+    <row r="49" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="J45" s="7" t="s">
+      <c r="C49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="J49" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
+    <row r="50" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="J46" s="7" t="s">
+      <c r="C50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="J50" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="6" customFormat="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
+    <row r="51" spans="1:13" s="6" customFormat="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="J47" s="7" t="s">
+      <c r="C51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="J51" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="40.5">
-      <c r="A48" s="1" t="s">
+    <row r="52" spans="1:13" ht="40.5">
+      <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D52" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H52" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="3" customFormat="1">
-      <c r="B49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="27">
-      <c r="B50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" t="s">
-        <v>196</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="27">
-      <c r="B51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I51" t="s">
-        <v>196</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="27">
-      <c r="B52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" t="s">
-        <v>196</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="27">
-      <c r="B53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" t="s">
-        <v>196</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+    <row r="53" spans="1:13" s="3" customFormat="1">
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="27">
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I54" t="s">
         <v>196</v>
@@ -2948,377 +3021,424 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="40.5">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:13" ht="27">
+      <c r="B55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" t="s">
+        <v>196</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="27">
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="27">
+      <c r="B57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s">
+        <v>196</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="B58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I58" t="s">
+        <v>196</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="40.5">
+      <c r="A59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H59" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M55">
+      <c r="M59">
         <v>99.582290900000004</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="10" customFormat="1" ht="40.5">
-      <c r="B56" s="11" t="s">
+    <row r="60" spans="1:13" s="10" customFormat="1" ht="40.5">
+      <c r="B60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="J56" s="10" t="s">
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="J60" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="10" customFormat="1" ht="54">
-      <c r="B57" s="11" t="s">
+    <row r="61" spans="1:13" s="10" customFormat="1" ht="54">
+      <c r="B61" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="J57" s="10" t="s">
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="J61" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="25" customFormat="1" ht="40.5">
-      <c r="B58" s="26" t="s">
+    <row r="62" spans="1:13" s="25" customFormat="1" ht="40.5">
+      <c r="B62" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:13" s="25" customFormat="1">
-      <c r="B59" s="26" t="s">
+      <c r="C62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="J62" s="26"/>
+    </row>
+    <row r="63" spans="1:13" s="25" customFormat="1">
+      <c r="B63" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1" t="s">
+      <c r="C63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" t="s">
+        <v>106</v>
+      </c>
+      <c r="M64">
+        <v>717.36039059999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="16" t="s">
+      <c r="B65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I65" t="s">
         <v>124</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J65" t="s">
         <v>106</v>
       </c>
-      <c r="M60">
-        <v>717.36039059999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1" t="s">
+      <c r="M65">
+        <v>757.39374190000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="40.5">
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I66" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="6" customFormat="1" ht="27">
+      <c r="B67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="J67" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="40.5">
+      <c r="A68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="15"/>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>66</v>
+      </c>
+      <c r="K68" t="s">
         <v>232</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61" t="s">
-        <v>106</v>
-      </c>
-      <c r="M61">
-        <v>757.39374190000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="40.5">
-      <c r="B62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="B63" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="J63" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="40.5">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row r="69" spans="1:13" ht="40.5">
+      <c r="A69" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="15"/>
-      <c r="I64" t="s">
+      <c r="B69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="15"/>
+      <c r="I69" t="s">
         <v>21</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J69" t="s">
         <v>66</v>
       </c>
-      <c r="K64" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="40.5">
-      <c r="A65" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="15"/>
-      <c r="I65" t="s">
+    </row>
+    <row r="70" spans="1:13" s="10" customFormat="1" ht="40.5">
+      <c r="B70" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:13" ht="40.5">
+      <c r="A71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" t="s">
         <v>21</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="10" customFormat="1" ht="40.5">
-      <c r="B66" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="1:10" ht="40.5">
-      <c r="A67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="27">
-      <c r="B68" s="1" t="s">
+    <row r="72" spans="1:13" ht="27">
+      <c r="B72" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="27">
-      <c r="B69" s="1" t="s">
+    <row r="73" spans="1:13" ht="27">
+      <c r="B73" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I73" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="27">
-      <c r="B70" s="1" t="s">
+    <row r="74" spans="1:13" ht="27">
+      <c r="B74" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I74" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="40.5">
-      <c r="B71" s="1" t="s">
+    <row r="75" spans="1:13" ht="40.5">
+      <c r="B75" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="67.5">
-      <c r="B72" s="7" t="s">
+    <row r="76" spans="1:13" s="6" customFormat="1" ht="67.5">
+      <c r="B76" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="F72" s="7" t="s">
+      <c r="C76" s="7"/>
+      <c r="F76" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1">
-      <c r="B73" s="7" t="s">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:13" s="6" customFormat="1">
+      <c r="B77" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1">
-      <c r="B74" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:10" ht="40.5">
-      <c r="B75" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="25" customFormat="1">
-      <c r="B76" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" spans="1:10" s="6" customFormat="1">
-      <c r="B77" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:10" s="6" customFormat="1" ht="27">
+    <row r="78" spans="1:13" s="6" customFormat="1">
       <c r="B78" s="7" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="F78" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:10" s="6" customFormat="1" ht="27">
-      <c r="B79" s="7" t="s">
+    <row r="79" spans="1:13" ht="40.5">
+      <c r="B79" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="25" customFormat="1">
+      <c r="B80" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+    </row>
+    <row r="81" spans="2:10" s="6" customFormat="1">
+      <c r="B81" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="2:10" s="6" customFormat="1" ht="27">
+      <c r="B82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="2:10" s="6" customFormat="1" ht="27">
+      <c r="B83" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" ht="40.5">
-      <c r="B80" s="1" t="s">
+      <c r="C83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="2:10" ht="40.5">
+      <c r="B84" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D84" t="s">
         <v>175</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J84" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="1" t="s">
+    <row r="85" spans="2:10">
+      <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D85" t="s">
         <v>179</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="3:6">
-      <c r="C82" s="1" t="s">
+    <row r="86" spans="2:10">
+      <c r="C86" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D86" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F68:F69"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:M1"/>

--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="280">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -964,10 +964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>股票维度累加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,29 +1215,118 @@
   </si>
   <si>
     <t>FCT_02_037_5_GRADE_COMMISSION_RATIO_DIFFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FCT_02_040_10_GRADE_COMMISSION_RATIO_MEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>五档委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五档委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_042_5_GRADE_COMMISSION_RATIO_MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_043_5_GRADE_COMMISSION_RATIO_STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FCT_02_041_10_GRADE_COMMISSION_RATIO_STD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五档委比均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五档委比标准差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_042_5_GRADE_COMMISSION_RATIO_MEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_043_5_GRADE_COMMISSION_RATIO_STD</t>
+    <t>总委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权五档委比差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权五档委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权五档委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std（当前成交额/委卖）总，10档，5档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖 差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权五档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单时间类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1323,7 +1408,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,6 +1451,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1381,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,6 +1586,27 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1808,1650 +1920,1846 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="49.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="14" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="41.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="14" max="15" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
-      <c r="A1" s="35">
-        <v>6</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:15" ht="14.25">
+      <c r="A1" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="34"/>
       <c r="M1" s="34"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="35"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="40.5">
-      <c r="A3" s="1" t="s">
-        <v>210</v>
+    <row r="3" spans="1:15" ht="40.5">
+      <c r="A3" s="43" t="s">
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3">
+        <v>644.51521219999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="54">
+      <c r="B4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L4" t="s">
         <v>95</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M4" t="s">
+        <v>223</v>
+      </c>
+      <c r="N4">
+        <v>43.214883800000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="39" customFormat="1">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="1:15" s="39" customFormat="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:15" s="39" customFormat="1">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:15" ht="243">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8">
+        <v>3749.9206562999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="40.5">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="37">
+        <v>50100300500</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" ht="243">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15">
+        <v>3775.644515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="39" customFormat="1">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="2:14" s="39" customFormat="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="2:14" s="39" customFormat="1">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="2:14" s="39" customFormat="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="2:14" ht="108">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20">
+        <v>2259.9811599999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="37">
+        <v>50100300500</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="2:14" ht="108">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="30"/>
+      <c r="I26" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26">
+        <v>2259.1909943999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="39" customFormat="1">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="2:14" s="39" customFormat="1">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="2:14" s="39" customFormat="1">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="2:14" s="39" customFormat="1">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+    </row>
+    <row r="31" spans="2:14" ht="108">
+      <c r="B31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="27">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="40.5">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="40.5">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" s="6" customFormat="1" ht="27">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="6" customFormat="1" ht="27">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="6" customFormat="1">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="40.5">
+      <c r="B38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="15"/>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="39" customFormat="1">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" spans="1:14" ht="40.5">
+      <c r="B40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="15"/>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="39" customFormat="1">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+    </row>
+    <row r="42" spans="1:14" ht="40.5">
+      <c r="B42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="256.5">
+      <c r="A43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43">
+        <v>4657.8898304000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="1"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="27">
+      <c r="B45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" t="s">
+        <v>223</v>
+      </c>
+      <c r="N45">
+        <v>626.77718359999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="27">
+      <c r="B46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46" t="s">
+        <v>223</v>
+      </c>
+      <c r="N46" s="1">
+        <v>566.8946158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1">
+      <c r="B47" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="M3">
-        <v>644.51521219999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="54">
-      <c r="A4" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N47">
+        <v>1130.118056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="67.5">
+      <c r="B48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:14" s="1" customFormat="1" ht="94.5">
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="10" customFormat="1">
+      <c r="C50" s="11"/>
+      <c r="D50" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" s="10" customFormat="1">
+      <c r="C51" s="11"/>
+      <c r="D51" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M52" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" t="s">
+      <c r="N52" s="8">
+        <v>457.108951399999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B53" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K53" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4">
-        <v>43.214883800000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="243">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L53" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:14" s="6" customFormat="1" ht="40.5">
+      <c r="C54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="21" customFormat="1" ht="27">
+      <c r="C55" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="21" customFormat="1" ht="27">
+      <c r="A56" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="6" customFormat="1" ht="67.5">
+      <c r="C57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" s="6" customFormat="1">
+      <c r="C58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" s="6" customFormat="1">
+      <c r="C59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" ht="81">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K60" t="s">
+        <v>145</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N60">
+        <v>955.34715940000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="21" customFormat="1" ht="27">
+      <c r="C61" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="8" customFormat="1" ht="27">
+      <c r="B62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N62" s="8">
+        <v>514.53126239999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="10" customFormat="1" ht="27">
+      <c r="C63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="8" customFormat="1" ht="40.5">
+      <c r="B64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="G64" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N64" s="8">
+        <v>839.15660130000003</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" s="25" customFormat="1" ht="40.5">
+      <c r="C65" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="26"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="27">
+      <c r="B66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K66" t="s">
         <v>66</v>
       </c>
-      <c r="K5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5">
-        <v>3749.9206562999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="L66" t="s">
+        <v>125</v>
+      </c>
+      <c r="M66" t="s">
+        <v>223</v>
+      </c>
+      <c r="N66">
+        <v>369.89989050000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" s="25" customFormat="1">
+      <c r="C67" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" s="3" customFormat="1" ht="40.5">
+      <c r="B68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1603.5969289</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" s="3" customFormat="1" ht="27">
+      <c r="B69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1620.3955997999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" s="3" customFormat="1" ht="40.5">
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1687.0529958</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" s="3" customFormat="1" ht="40.5">
+      <c r="B71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N71" s="3">
+        <v>6276.4550690999904</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="3" customFormat="1" ht="243">
+      <c r="B72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N72" s="3">
+        <v>6252.9546962000004</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" ht="40.5">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J73" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" s="24" customFormat="1" ht="27">
+      <c r="B74" s="23"/>
+      <c r="C74" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="G74" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" s="3" customFormat="1">
+      <c r="C75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" ht="27">
+      <c r="C76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J76" t="s">
+        <v>195</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="27">
+      <c r="C77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J77" t="s">
+        <v>195</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" ht="27">
+      <c r="C78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s">
+        <v>195</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" ht="27">
+      <c r="C79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" t="s">
+        <v>195</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="C80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J80" t="s">
+        <v>195</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="40.5">
+      <c r="B81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N81">
+        <v>99.582290900000004</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" s="10" customFormat="1" ht="40.5">
+      <c r="C82" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="K82" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="83" spans="2:14" s="10" customFormat="1" ht="54">
+      <c r="C83" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="K83" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="37">
-        <v>50100300500</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="243">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10">
-        <v>3775.644515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="108">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11">
-        <v>2259.9811599999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="37">
-        <v>50100300500</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="108">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16">
-        <v>2259.1909943999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="256.5">
-      <c r="A17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17">
-        <v>4657.8898304000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="27">
-      <c r="A19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" t="s">
-        <v>224</v>
-      </c>
-      <c r="M19">
-        <v>626.77718359999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="27">
-      <c r="A20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="1">
-        <v>566.8946158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="81">
-      <c r="A21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J21" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M21">
-        <v>955.34715940000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M22">
-        <v>1130.118056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="67.5">
-      <c r="A23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="84" spans="2:14" s="25" customFormat="1" ht="40.5">
+      <c r="C84" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="K84" s="26"/>
+    </row>
+    <row r="85" spans="2:14" s="25" customFormat="1">
+      <c r="C85" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="K85" s="26"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+      <c r="K86" t="s">
+        <v>106</v>
+      </c>
+      <c r="N86">
+        <v>717.36039059999996</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+      <c r="K87" t="s">
+        <v>106</v>
+      </c>
+      <c r="N87">
+        <v>757.39374190000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" ht="40.5">
+      <c r="C88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J88" t="s">
+        <v>86</v>
+      </c>
+      <c r="K88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" s="6" customFormat="1" ht="27">
+      <c r="C89" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="K89" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="94.5">
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="10" customFormat="1">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" s="10" customFormat="1">
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" t="s">
-        <v>224</v>
-      </c>
-      <c r="M27" s="8">
-        <v>457.108951399999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:13" s="6" customFormat="1" ht="40.5">
-      <c r="B29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B30" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B31" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="21" customFormat="1" ht="27">
-      <c r="B32" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="8" customFormat="1" ht="27">
-      <c r="A33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="M33" s="8">
-        <v>514.53126239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="10" customFormat="1" ht="27">
-      <c r="B34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="F34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="8" customFormat="1" ht="40.5">
-      <c r="A35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="F35" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M35" s="8">
-        <v>839.15660130000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="25" customFormat="1" ht="40.5">
-      <c r="B36" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="27">
-      <c r="A37" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" t="s">
-        <v>125</v>
-      </c>
-      <c r="L37" t="s">
-        <v>224</v>
-      </c>
-      <c r="M37">
-        <v>369.89989050000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="25" customFormat="1">
-      <c r="B38" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1603.5969289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="3" customFormat="1" ht="27">
-      <c r="A40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M40" s="3">
-        <v>1620.3955997999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1687.0529958</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="3" customFormat="1" ht="40.5">
-      <c r="A42" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M42" s="3">
-        <v>6276.4550690999904</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="3" customFormat="1" ht="243">
-      <c r="A43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="I43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M43" s="3">
-        <v>6252.9546962000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="108">
-      <c r="A44" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="27">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="40.5">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="40.5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I47" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="24" customFormat="1" ht="27">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="F48" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="J49" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="J50" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="6" customFormat="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="J51" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="40.5">
-      <c r="A52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="3" customFormat="1">
-      <c r="B53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="27">
-      <c r="B54" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I54" t="s">
-        <v>196</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="27">
-      <c r="B55" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I55" t="s">
-        <v>196</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="27">
-      <c r="B56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" t="s">
-        <v>196</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="27">
-      <c r="B57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" t="s">
-        <v>196</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="B58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I58" t="s">
-        <v>196</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="40.5">
-      <c r="A59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M59">
-        <v>99.582290900000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="10" customFormat="1" ht="40.5">
-      <c r="B60" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="J60" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="10" customFormat="1" ht="54">
-      <c r="B61" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="J61" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="25" customFormat="1" ht="40.5">
-      <c r="B62" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="J62" s="26"/>
-    </row>
-    <row r="63" spans="1:13" s="25" customFormat="1">
-      <c r="B63" s="26" t="s">
+    </row>
+    <row r="90" spans="2:14" s="10" customFormat="1" ht="40.5">
+      <c r="C90" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="2:14" ht="27">
+      <c r="C91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="27">
+      <c r="C92" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I64" t="s">
-        <v>124</v>
-      </c>
-      <c r="J64" t="s">
-        <v>106</v>
-      </c>
-      <c r="M64">
-        <v>717.36039059999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J65" t="s">
-        <v>106</v>
-      </c>
-      <c r="M65">
-        <v>757.39374190000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="40.5">
-      <c r="B66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I66" t="s">
-        <v>86</v>
-      </c>
-      <c r="J66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="6" customFormat="1" ht="27">
-      <c r="B67" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="J67" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="40.5">
-      <c r="A68" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="15"/>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" t="s">
-        <v>66</v>
-      </c>
-      <c r="K68" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="40.5">
-      <c r="A69" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="15"/>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="10" customFormat="1" ht="40.5">
-      <c r="B70" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:13" ht="40.5">
-      <c r="A71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="27">
-      <c r="B72" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J92" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="27">
-      <c r="B73" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F73" s="1" t="s">
+    <row r="93" spans="2:14" ht="27">
+      <c r="C93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" ht="40.5">
+      <c r="C94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="27">
-      <c r="B74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="40.5">
-      <c r="B75" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="6" customFormat="1" ht="67.5">
-      <c r="B76" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="F76" s="7" t="s">
+    </row>
+    <row r="95" spans="2:14" ht="40.5">
+      <c r="C95" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" s="25" customFormat="1">
+      <c r="C96" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:13" s="6" customFormat="1">
-      <c r="B77" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="1:13" s="6" customFormat="1">
-      <c r="B78" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="1:13" ht="40.5">
-      <c r="B79" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="25" customFormat="1">
-      <c r="B80" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="26" t="s">
+      <c r="G96" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F80" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-    </row>
-    <row r="81" spans="2:10" s="6" customFormat="1">
-      <c r="B81" s="7" t="s">
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+    </row>
+    <row r="97" spans="3:11" s="6" customFormat="1">
+      <c r="C97" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="2:10" s="6" customFormat="1" ht="27">
-      <c r="B82" s="7" t="s">
+      <c r="D97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="3:11" s="6" customFormat="1" ht="27">
+      <c r="C98" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="F82" s="7" t="s">
+      <c r="D98" s="7"/>
+      <c r="G98" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="2:10" s="6" customFormat="1" ht="27">
-      <c r="B83" s="7" t="s">
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="3:11" s="6" customFormat="1" ht="27">
+      <c r="C99" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="2:10" ht="40.5">
-      <c r="B84" s="1" t="s">
+      <c r="D99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="3:11" ht="40.5">
+      <c r="C100" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E100" t="s">
         <v>175</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K100" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
-      <c r="C85" s="1" t="s">
+    <row r="101" spans="3:11">
+      <c r="D101" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E101" t="s">
         <v>179</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
-      <c r="C86" s="1" t="s">
+    <row r="102" spans="3:11">
+      <c r="D102" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E102" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G38:G40"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K1:N2">
+  <conditionalFormatting sqref="L1:O2">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"block"</formula>
     </cfRule>

--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -11,11 +11,12 @@
     <sheet name="概述" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="288">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,10 +933,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ready</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,11 +1168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_013_ASK_LARGE_AMOUNT_BILL
-FCT_02_014_BID_LARGE_AMOUNT_BILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（bid-ask）/（ask+bid），股票和期指都可以有这个指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1230,38 +1222,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FCT_02_043_5_GRADE_COMMISSION_RATIO_STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_041_10_GRADE_COMMISSION_RATIO_STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权五档委比标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std（当前成交额/委卖）总，10档，5档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖 差分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权十档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加权五档委比n天比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单时间类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3775.644515
+-&gt;
+354.5711017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FCT_02_042_5_GRADE_COMMISSION_RATIO_MEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_043_5_GRADE_COMMISSION_RATIO_STD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_041_10_GRADE_COMMISSION_RATIO_STD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总委比均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总委比标准差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权十档委比差分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权十档委比均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权十档委比标准差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加权五档委比差分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1270,63 +1336,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加权五档委比标准差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>std（当前成交额/委卖）总，10档，5档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂单类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前买卖量5档，合计委买量超过三天均值的1.5倍（参数可调），说明有大挂单，大挂买单额累/5档委买+5档委卖 差分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总委比n天比值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十档委比n天比值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权十档委比n天比值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五档委比n天比值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权五档委比n天比值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂单时间类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大单类</t>
+    <t>FCT_02_044_10_GRADE_WEIGHTED_COMMISSION_RATIO_DIFFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_045_10_GRADE_WEIGHTED_COMMISSION_RATIO_MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_046_10_GRADE_WEIGHTED_COMMISSION_RATIO_STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_047_5_GRADE_WEIGHTED_COMMISSION_RATIO_DIFFERENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_048_5_GRADE_WEIGHTED_COMMISSION_RATIO_MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_049_5_GRADE_WEIGHTED_COMMISSION_RATIO_STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_013_BID_LARGE_AMOUNT_BILL
+FCT_02_014_ASK_LARGE_AMOUNT_BILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1569,44 +1604,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,14 +1957,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="41.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.875" style="1" customWidth="1"/>
     <col min="5" max="6" width="19.5" customWidth="1"/>
@@ -1941,58 +1976,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25">
-      <c r="A1" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="20"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="14.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="5" t="s">
         <v>94</v>
       </c>
@@ -2003,21 +2038,21 @@
         <v>71</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
-      <c r="A3" s="43" t="s">
-        <v>269</v>
+      <c r="A3" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>167</v>
@@ -2032,7 +2067,7 @@
         <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N3">
         <v>644.51521219999995</v>
@@ -2040,16 +2075,16 @@
     </row>
     <row r="4" spans="1:15" ht="54">
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" t="s">
@@ -2062,41 +2097,41 @@
         <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N4">
         <v>43.214883800000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="39" customFormat="1">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:15" s="39" customFormat="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:15" s="39" customFormat="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
+    <row r="5" spans="1:15" s="34" customFormat="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:15" s="34" customFormat="1">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" s="34" customFormat="1">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="243">
       <c r="B8" s="1" t="s">
@@ -2106,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>136</v>
@@ -2122,21 +2157,24 @@
       </c>
       <c r="N8">
         <v>3749.9206562999998</v>
+      </c>
+      <c r="O8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" t="s">
         <v>212</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" t="s">
-        <v>213</v>
       </c>
       <c r="K9" t="s">
         <v>66</v>
@@ -2145,7 +2183,7 @@
         <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40.5">
@@ -2176,19 +2214,19 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" t="s">
         <v>234</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J11" t="s">
-        <v>235</v>
       </c>
       <c r="K11" t="s">
         <v>66</v>
@@ -2199,19 +2237,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>247</v>
-      </c>
       <c r="I12" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -2219,36 +2257,42 @@
       <c r="K12" t="s">
         <v>66</v>
       </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="37">
+        <v>244</v>
+      </c>
+      <c r="F13" s="32">
         <v>50100300500</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J13" t="s">
         <v>99</v>
       </c>
       <c r="K13" t="s">
         <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" s="37"/>
+        <v>269</v>
+      </c>
+      <c r="F14" s="32"/>
       <c r="H14" s="30"/>
       <c r="I14" s="16"/>
     </row>
@@ -2272,49 +2316,70 @@
       <c r="L15" t="s">
         <v>118</v>
       </c>
-      <c r="N15">
-        <v>3775.644515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="39" customFormat="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="2:14" s="39" customFormat="1">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="2:14" s="39" customFormat="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="2:14" s="39" customFormat="1">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
+      <c r="N15" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27">
+      <c r="B16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="16"/>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="16"/>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:14" s="34" customFormat="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="2:14" ht="108">
       <c r="B20" s="1" t="s">
@@ -2324,7 +2389,7 @@
         <v>28</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>137</v>
@@ -2345,13 +2410,13 @@
     <row r="21" spans="2:14">
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
@@ -2363,21 +2428,21 @@
         <v>95</v>
       </c>
       <c r="M21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
@@ -2385,22 +2450,25 @@
       <c r="K22" t="s">
         <v>66</v>
       </c>
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
         <v>99</v>
@@ -2408,22 +2476,25 @@
       <c r="K23" t="s">
         <v>66</v>
       </c>
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F24" s="37">
+        <v>252</v>
+      </c>
+      <c r="F24" s="32">
         <v>50100300500</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
         <v>99</v>
@@ -2435,9 +2506,9 @@
     <row r="25" spans="2:14">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F25" s="37"/>
+        <v>271</v>
+      </c>
+      <c r="F25" s="32"/>
       <c r="H25" s="30"/>
       <c r="I25" s="16"/>
     </row>
@@ -2465,49 +2536,79 @@
         <v>2259.1909943999999</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="39" customFormat="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" spans="2:14" s="39" customFormat="1">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="2:14" s="39" customFormat="1">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="2:14" s="39" customFormat="1">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
+    <row r="27" spans="2:14">
+      <c r="B27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="16"/>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="16"/>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="16"/>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" s="34" customFormat="1">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:14" ht="108">
       <c r="B31" s="1" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -2535,7 +2636,7 @@
     <row r="32" spans="2:14" ht="27">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2550,10 +2651,10 @@
     <row r="33" spans="1:14" ht="40.5">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J33" t="s">
         <v>86</v>
@@ -2565,7 +2666,7 @@
     <row r="34" spans="1:14" ht="40.5">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -2610,13 +2711,13 @@
     </row>
     <row r="38" spans="1:14" ht="40.5">
       <c r="B38" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="32" t="s">
-        <v>228</v>
+      <c r="G38" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="15"/>
@@ -2627,27 +2728,27 @@
         <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="39" customFormat="1">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="34" customFormat="1">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:14" ht="40.5">
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="32"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="28"/>
       <c r="I40" s="15"/>
       <c r="J40" t="s">
@@ -2657,15 +2758,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="39" customFormat="1">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
+    <row r="41" spans="1:14" s="34" customFormat="1">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
     </row>
     <row r="42" spans="1:14" ht="40.5">
       <c r="B42" s="1" t="s">
@@ -2686,10 +2787,10 @@
     </row>
     <row r="43" spans="1:14" ht="256.5">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>96</v>
@@ -2701,7 +2802,7 @@
         <v>126</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>138</v>
@@ -2723,7 +2824,7 @@
       <c r="B44" s="1"/>
       <c r="G44" s="13"/>
       <c r="H44" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="1" t="s">
@@ -2738,10 +2839,10 @@
     </row>
     <row r="45" spans="1:14" ht="27">
       <c r="B45" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>76</v>
@@ -2763,7 +2864,7 @@
         <v>125</v>
       </c>
       <c r="M45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N45">
         <v>626.77718359999994</v>
@@ -2771,7 +2872,7 @@
     </row>
     <row r="46" spans="1:14" s="1" customFormat="1" ht="27">
       <c r="B46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>78</v>
@@ -2792,7 +2893,7 @@
         <v>95</v>
       </c>
       <c r="M46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N46" s="1">
         <v>566.8946158</v>
@@ -2800,7 +2901,7 @@
     </row>
     <row r="47" spans="1:14" s="1" customFormat="1">
       <c r="B47" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>97</v>
@@ -2823,14 +2924,14 @@
     </row>
     <row r="48" spans="1:14" s="1" customFormat="1" ht="67.5">
       <c r="B48" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>67</v>
@@ -2848,7 +2949,7 @@
         <v>79</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>67</v>
@@ -2892,11 +2993,11 @@
         <v>10</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>21</v>
@@ -2908,7 +3009,7 @@
         <v>125</v>
       </c>
       <c r="M52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N52" s="8">
         <v>457.108951399999</v>
@@ -2916,10 +3017,10 @@
     </row>
     <row r="53" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="B53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="D53" s="4"/>
       <c r="G53" s="4" t="s">
@@ -2927,7 +3028,7 @@
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -2936,7 +3037,7 @@
         <v>66</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M53"/>
     </row>
@@ -2961,14 +3062,14 @@
     </row>
     <row r="55" spans="1:14" s="21" customFormat="1" ht="27">
       <c r="C55" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K55" s="21" t="s">
         <v>68</v>
@@ -2976,17 +3077,17 @@
     </row>
     <row r="56" spans="1:14" s="21" customFormat="1" ht="27">
       <c r="A56" s="21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D56" s="22"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K56" s="21" t="s">
         <v>68</v>
@@ -2998,7 +3099,7 @@
       </c>
       <c r="D57" s="7"/>
       <c r="G57" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -3027,10 +3128,10 @@
     </row>
     <row r="60" spans="1:14" ht="81">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>75</v>
@@ -3067,10 +3168,10 @@
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
       <c r="J61" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K61" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="8" customFormat="1" ht="27">
@@ -3164,10 +3265,10 @@
     </row>
     <row r="66" spans="2:14" ht="27">
       <c r="B66" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -3188,7 +3289,7 @@
         <v>125</v>
       </c>
       <c r="M66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N66">
         <v>369.89989050000003</v>
@@ -3203,7 +3304,7 @@
         <v>10</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J67" s="25" t="s">
         <v>36</v>
@@ -3358,10 +3459,10 @@
     <row r="73" spans="2:14" ht="40.5">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J73" t="s">
         <v>86</v>
@@ -3377,7 +3478,7 @@
       </c>
       <c r="D74" s="23"/>
       <c r="G74" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
@@ -3405,13 +3506,13 @@
     </row>
     <row r="76" spans="2:14" ht="27">
       <c r="C76" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J76" t="s">
         <v>194</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J76" t="s">
-        <v>195</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>67</v>
@@ -3419,10 +3520,10 @@
     </row>
     <row r="77" spans="2:14" ht="27">
       <c r="C77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>67</v>
@@ -3433,7 +3534,7 @@
         <v>41</v>
       </c>
       <c r="J78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>67</v>
@@ -3444,7 +3545,7 @@
         <v>42</v>
       </c>
       <c r="J79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>67</v>
@@ -3455,10 +3556,10 @@
         <v>43</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>67</v>
@@ -3537,7 +3638,7 @@
     </row>
     <row r="85" spans="2:14" s="25" customFormat="1">
       <c r="C85" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D85" s="26"/>
       <c r="G85" s="26"/>
@@ -3547,7 +3648,7 @@
     </row>
     <row r="86" spans="2:14">
       <c r="B86" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>107</v>
@@ -3567,7 +3668,7 @@
     </row>
     <row r="87" spans="2:14">
       <c r="B87" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>108</v>
@@ -3624,7 +3725,7 @@
     </row>
     <row r="91" spans="2:14" ht="27">
       <c r="C91" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>113</v>
@@ -3635,10 +3736,10 @@
     </row>
     <row r="92" spans="2:14" ht="27">
       <c r="C92" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J92" t="s">
         <v>112</v>
@@ -3660,7 +3761,7 @@
         <v>60</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="2:14" ht="40.5">
@@ -3673,10 +3774,10 @@
         <v>116</v>
       </c>
       <c r="D96" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G96" s="26" t="s">
         <v>204</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>205</v>
       </c>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
@@ -3745,11 +3846,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:N1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -3759,7 +3860,7 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L1:O2">
+  <conditionalFormatting sqref="L2:O2 L1">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"block"</formula>
     </cfRule>
@@ -3780,402 +3881,402 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -11,12 +11,11 @@
     <sheet name="概述" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="291">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,12 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 是否考虑集合竞价 2. 两个维度求平均？
-考虑按天求均值，之后再平均
-改进型因子：上边界用std代替固定1.5倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-10档之间有超过三天均值1.5倍以上的挂单ma（大挂买单累加）/6-10档委买+6-10档委卖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1362,6 +1355,24 @@
   <si>
     <t>FCT_02_013_BID_LARGE_AMOUNT_BILL
 FCT_02_014_ASK_LARGE_AMOUNT_BILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 是否考虑集合竞价 2. 两个维度求平均？
+考虑按天求均值，之后再平均
+改进型因子：上边界用std代替固定1.5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用已有的5档委买因子，按天求平均，来计算均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1977,10 +1988,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25">
       <c r="A1" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>24</v>
@@ -1992,16 +2003,16 @@
         <v>19</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>31</v>
@@ -2038,24 +2049,24 @@
         <v>71</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
       <c r="A3" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
@@ -2067,7 +2078,7 @@
         <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N3">
         <v>644.51521219999995</v>
@@ -2075,16 +2086,16 @@
     </row>
     <row r="4" spans="1:15" ht="54">
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" t="s">
@@ -2097,7 +2108,7 @@
         <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N4">
         <v>43.214883800000003</v>
@@ -2106,7 +2117,7 @@
     <row r="5" spans="1:15" s="34" customFormat="1">
       <c r="B5" s="33"/>
       <c r="C5" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="33"/>
       <c r="G5" s="33"/>
@@ -2116,7 +2127,7 @@
     <row r="6" spans="1:15" s="34" customFormat="1">
       <c r="B6" s="33"/>
       <c r="C6" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="33"/>
       <c r="G6" s="33"/>
@@ -2126,7 +2137,7 @@
     <row r="7" spans="1:15" s="34" customFormat="1">
       <c r="B7" s="33"/>
       <c r="C7" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="33"/>
       <c r="G7" s="33"/>
@@ -2141,10 +2152,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -2159,22 +2170,22 @@
         <v>3749.9206562999998</v>
       </c>
       <c r="O8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" t="s">
         <v>211</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" t="s">
-        <v>212</v>
       </c>
       <c r="K9" t="s">
         <v>66</v>
@@ -2183,7 +2194,7 @@
         <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40.5">
@@ -2203,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>23</v>
@@ -2214,19 +2225,19 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
         <v>233</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" t="s">
-        <v>234</v>
       </c>
       <c r="K11" t="s">
         <v>66</v>
@@ -2237,19 +2248,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J12" t="s">
         <v>99</v>
@@ -2263,19 +2274,19 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F13" s="32">
         <v>50100300500</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J13" t="s">
         <v>99</v>
@@ -2290,7 +2301,7 @@
     <row r="14" spans="1:15">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F14" s="32"/>
       <c r="H14" s="30"/>
@@ -2305,7 +2316,7 @@
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -2314,18 +2325,18 @@
         <v>66</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" s="32"/>
       <c r="H16" s="30"/>
@@ -2342,10 +2353,10 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="32"/>
       <c r="H17" s="30"/>
@@ -2362,10 +2373,10 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F18" s="32"/>
       <c r="H18" s="30"/>
@@ -2374,7 +2385,7 @@
     <row r="19" spans="2:14" s="34" customFormat="1">
       <c r="B19" s="33"/>
       <c r="C19" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="33"/>
       <c r="G19" s="33"/>
@@ -2389,10 +2400,10 @@
         <v>28</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -2410,13 +2421,13 @@
     <row r="21" spans="2:14">
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
@@ -2428,21 +2439,21 @@
         <v>95</v>
       </c>
       <c r="M21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
@@ -2456,19 +2467,19 @@
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
         <v>99</v>
@@ -2482,19 +2493,19 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F24" s="32">
         <v>50100300500</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
         <v>99</v>
@@ -2506,7 +2517,7 @@
     <row r="25" spans="2:14">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F25" s="32"/>
       <c r="H25" s="30"/>
@@ -2521,7 +2532,7 @@
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -2530,7 +2541,7 @@
         <v>66</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26">
         <v>2259.1909943999999</v>
@@ -2538,10 +2549,10 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F27" s="32"/>
       <c r="H27" s="30"/>
@@ -2558,10 +2569,10 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F28" s="32"/>
       <c r="H28" s="30"/>
@@ -2578,10 +2589,10 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F29" s="32"/>
       <c r="H29" s="30"/>
@@ -2599,7 +2610,7 @@
     <row r="30" spans="2:14" s="34" customFormat="1">
       <c r="B30" s="33"/>
       <c r="C30" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D30" s="33"/>
       <c r="G30" s="33"/>
@@ -2608,7 +2619,7 @@
     </row>
     <row r="31" spans="2:14" ht="108">
       <c r="B31" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -2619,12 +2630,14 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="19" t="s">
-        <v>157</v>
+      <c r="G31" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -2635,27 +2648,25 @@
     </row>
     <row r="32" spans="2:14" ht="27">
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="40.5">
+      <c r="G32" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="27">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
       <c r="J33" t="s">
         <v>86</v>
       </c>
@@ -2666,27 +2677,29 @@
     <row r="34" spans="1:14" ht="40.5">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" s="6" customFormat="1" ht="27">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="K35" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="35" spans="1:14" ht="40.5">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:14" s="6" customFormat="1" ht="27">
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7"/>
       <c r="G36" s="7"/>
@@ -2696,10 +2709,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="6" customFormat="1">
+    <row r="37" spans="1:14" s="6" customFormat="1" ht="27">
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D37" s="7"/>
       <c r="G37" s="7"/>
@@ -2709,151 +2722,137 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="40.5">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:14" s="6" customFormat="1">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="40.5">
+      <c r="B39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="15"/>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="34" customFormat="1">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+    </row>
+    <row r="41" spans="1:14" ht="40.5">
+      <c r="B41" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="15"/>
-      <c r="J38" t="s">
+      <c r="G41" s="41"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="15"/>
+      <c r="J41" t="s">
         <v>21</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K41" t="s">
         <v>66</v>
       </c>
-      <c r="L38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="34" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="1:14" ht="40.5">
-      <c r="B40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="42" spans="1:14" s="34" customFormat="1">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:14" ht="40.5">
+      <c r="B43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="15"/>
-      <c r="J40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="34" customFormat="1">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-    </row>
-    <row r="42" spans="1:14" ht="40.5">
-      <c r="B42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="256.5">
-      <c r="A43" t="s">
-        <v>265</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" t="s">
         <v>21</v>
       </c>
       <c r="K43" t="s">
         <v>66</v>
       </c>
-      <c r="L43" t="s">
+    </row>
+    <row r="44" spans="1:14" ht="256.5">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N43">
-        <v>4657.8898304000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="B44" s="1"/>
-      <c r="G44" s="13"/>
       <c r="H44" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="I44" s="17"/>
+        <v>209</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="J44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
         <v>66</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="27">
-      <c r="B45" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="L44" t="s">
+        <v>124</v>
+      </c>
+      <c r="N44">
+        <v>4657.8898304000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="1"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="17"/>
       <c r="J45" s="1" t="s">
         <v>21</v>
       </c>
@@ -2861,117 +2860,131 @@
         <v>66</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" t="s">
-        <v>222</v>
-      </c>
-      <c r="N45">
-        <v>626.77718359999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" ht="27">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="27">
       <c r="B46" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
         <v>66</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="M46" t="s">
-        <v>222</v>
-      </c>
-      <c r="N46" s="1">
-        <v>566.8946158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="1" customFormat="1">
+        <v>221</v>
+      </c>
+      <c r="N46">
+        <v>626.77718359999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="27">
       <c r="B47" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>147</v>
+        <v>206</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N47">
+        <v>95</v>
+      </c>
+      <c r="M47" t="s">
+        <v>221</v>
+      </c>
+      <c r="N47" s="1">
+        <v>566.8946158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1">
+      <c r="B48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N48">
         <v>1130.118056</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" ht="67.5">
-      <c r="B48" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="1:14" s="1" customFormat="1" ht="67.5">
+      <c r="B49" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N48"/>
-    </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" ht="94.5">
       <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="I49" s="16"/>
       <c r="J49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" s="10" customFormat="1">
-      <c r="C50" s="11"/>
-      <c r="D50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14" s="1" customFormat="1" ht="94.5">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="1:14" s="10" customFormat="1">
       <c r="C51" s="11"/>
       <c r="D51" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>81</v>
@@ -2981,54 +2994,36 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B52" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M52" t="s">
-        <v>222</v>
-      </c>
-      <c r="N52" s="8">
-        <v>457.108951399999</v>
-      </c>
+    <row r="52" spans="1:14" s="10" customFormat="1">
+      <c r="C52" s="11"/>
+      <c r="D52" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="B53" s="4" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>21</v>
@@ -3037,82 +3032,100 @@
         <v>66</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="M53"/>
-    </row>
-    <row r="54" spans="1:14" s="6" customFormat="1" ht="40.5">
-      <c r="C54" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M53" t="s">
+        <v>221</v>
+      </c>
+      <c r="N53" s="8">
+        <v>457.108951399999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B54" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:14" s="6" customFormat="1" ht="40.5">
+      <c r="C55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="6" t="s">
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="21" customFormat="1" ht="27">
-      <c r="C55" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" s="22" t="s">
+    <row r="56" spans="1:14" s="21" customFormat="1" ht="27">
+      <c r="C56" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="21" customFormat="1" ht="27">
-      <c r="A56" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K56" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="6" customFormat="1" ht="67.5">
-      <c r="C57" s="7" t="s">
+    <row r="57" spans="1:14" s="21" customFormat="1" ht="27">
+      <c r="A57" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="6" customFormat="1" ht="67.5">
+      <c r="C58" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="G57" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:14" s="6" customFormat="1">
-      <c r="C58" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="D58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -3121,241 +3134,225 @@
       <c r="C59" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:14" ht="81">
-      <c r="A60" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="1" t="s">
+    <row r="60" spans="1:14" s="6" customFormat="1">
+      <c r="C60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" ht="81">
+      <c r="A61" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="18" t="s">
+      <c r="J61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K61" t="s">
         <v>144</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N60">
+      <c r="N61">
         <v>955.34715940000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="21" customFormat="1" ht="27">
-      <c r="C61" s="22" t="s">
+    <row r="62" spans="1:14" s="21" customFormat="1" ht="27">
+      <c r="C62" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="21" t="s">
+      <c r="D62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="K61" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="8" customFormat="1" ht="27">
-      <c r="B62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="4" t="s">
+    </row>
+    <row r="63" spans="1:14" s="8" customFormat="1" ht="27">
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="G62" s="4" t="s">
+      <c r="D63" s="4"/>
+      <c r="G63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="18" t="s">
+      <c r="H63" s="4"/>
+      <c r="I63" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N63" s="8">
+        <v>514.53126239999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="10" customFormat="1" ht="27">
+      <c r="C64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="G64" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" s="8" customFormat="1" ht="40.5">
+      <c r="B65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="G65" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="8">
+        <v>839.15660130000003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" s="25" customFormat="1" ht="40.5">
+      <c r="C66" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="26"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="27">
+      <c r="B67" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N62" s="8">
-        <v>514.53126239999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="10" customFormat="1" ht="27">
-      <c r="C63" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="G63" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="10" t="s">
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>66</v>
+      </c>
+      <c r="L67" t="s">
+        <v>124</v>
+      </c>
+      <c r="M67" t="s">
+        <v>221</v>
+      </c>
+      <c r="N67">
+        <v>369.89989050000003</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" s="25" customFormat="1">
+      <c r="C68" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K63" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" s="8" customFormat="1" ht="40.5">
-      <c r="B64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="G64" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N64" s="8">
-        <v>839.15660130000003</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" s="25" customFormat="1" ht="40.5">
-      <c r="C65" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" ht="27">
-      <c r="B66" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="J66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" t="s">
-        <v>66</v>
-      </c>
-      <c r="L66" t="s">
-        <v>125</v>
-      </c>
-      <c r="M66" t="s">
-        <v>222</v>
-      </c>
-      <c r="N66">
-        <v>369.89989050000003</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" s="25" customFormat="1">
-      <c r="C67" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="J67" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" s="3" customFormat="1" ht="40.5">
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="69" spans="2:14" s="3" customFormat="1" ht="40.5">
+      <c r="B69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J68" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N68" s="3">
-        <v>1603.5969289</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" s="3" customFormat="1" ht="27">
-      <c r="B69" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="18" t="s">
-        <v>161</v>
+      <c r="I69" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="J69" t="s">
         <v>21</v>
@@ -3364,25 +3361,27 @@
         <v>68</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N69" s="3">
-        <v>1620.3955997999999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" s="3" customFormat="1" ht="40.5">
+        <v>1603.5969289</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" s="3" customFormat="1" ht="27">
       <c r="B70" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>22</v>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -3391,28 +3390,25 @@
         <v>68</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N70" s="3">
-        <v>1687.0529958</v>
+        <v>1620.3955997999999</v>
       </c>
     </row>
     <row r="71" spans="2:14" s="3" customFormat="1" ht="40.5">
       <c r="B71" s="1" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
         <v>21</v>
@@ -3421,27 +3417,28 @@
         <v>68</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="N71" s="3">
-        <v>6276.4550690999904</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" s="3" customFormat="1" ht="243">
+        <v>1687.0529958</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" s="3" customFormat="1" ht="40.5">
       <c r="B72" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="19" t="s">
-        <v>156</v>
+      <c r="G72" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="J72" t="s">
         <v>21</v>
@@ -3450,80 +3447,98 @@
         <v>68</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N72" s="3">
+        <v>6276.4550690999904</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" s="3" customFormat="1" ht="243">
+      <c r="B73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N73" s="3">
         <v>6252.9546962000004</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="40.5">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G73" s="1" t="s">
+    <row r="74" spans="2:14" ht="40.5">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J73" t="s">
+      <c r="G74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J74" t="s">
         <v>86</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:14" s="24" customFormat="1" ht="27">
-      <c r="B74" s="23"/>
-      <c r="C74" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="G74" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="24" t="s">
+    <row r="75" spans="2:14" s="24" customFormat="1" ht="27">
+      <c r="B75" s="23"/>
+      <c r="C75" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="G75" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="K74" s="23" t="s">
+      <c r="K75" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="2:14" s="3" customFormat="1">
-      <c r="C75" s="2" t="s">
+    <row r="76" spans="2:14" s="3" customFormat="1">
+      <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="3" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="3" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" ht="27">
-      <c r="C76" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J76" t="s">
-        <v>194</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:14" ht="27">
       <c r="C77" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="G77" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="J77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>67</v>
@@ -3531,10 +3546,10 @@
     </row>
     <row r="78" spans="2:14" ht="27">
       <c r="C78" s="1" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="J78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>67</v>
@@ -3542,83 +3557,78 @@
     </row>
     <row r="79" spans="2:14" ht="27">
       <c r="C79" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" ht="27">
       <c r="C80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="J80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="2:14" ht="40.5">
-      <c r="B81" s="1" t="s">
+    <row r="81" spans="2:14">
+      <c r="C81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J81" t="s">
+        <v>193</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="40.5">
+      <c r="B82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I82" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I81" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N81">
+      <c r="K82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N82">
         <v>99.582290900000004</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="10" customFormat="1" ht="40.5">
-      <c r="C82" s="11" t="s">
+    <row r="83" spans="2:14" s="10" customFormat="1" ht="40.5">
+      <c r="C83" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G83" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="K82" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" s="10" customFormat="1" ht="54">
-      <c r="C83" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -3626,19 +3636,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="2:14" s="25" customFormat="1" ht="40.5">
-      <c r="C84" s="26" t="s">
+    <row r="84" spans="2:14" s="10" customFormat="1" ht="54">
+      <c r="C84" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="K84" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" s="25" customFormat="1" ht="40.5">
+      <c r="C85" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="D84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="K84" s="26"/>
-    </row>
-    <row r="85" spans="2:14" s="25" customFormat="1">
-      <c r="C85" s="26" t="s">
-        <v>197</v>
       </c>
       <c r="D85" s="26"/>
       <c r="G85" s="26"/>
@@ -3646,209 +3662,219 @@
       <c r="I85" s="26"/>
       <c r="K85" s="26"/>
     </row>
-    <row r="86" spans="2:14">
-      <c r="B86" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="J86" t="s">
-        <v>124</v>
-      </c>
-      <c r="K86" t="s">
-        <v>106</v>
-      </c>
-      <c r="N86">
-        <v>717.36039059999996</v>
-      </c>
+    <row r="86" spans="2:14" s="25" customFormat="1">
+      <c r="C86" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="K86" s="26"/>
     </row>
     <row r="87" spans="2:14">
       <c r="B87" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J87" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" t="s">
+        <v>105</v>
+      </c>
+      <c r="N87">
+        <v>717.36039059999996</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+      <c r="K88" t="s">
+        <v>105</v>
+      </c>
+      <c r="N88">
+        <v>757.39374190000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" ht="40.5">
+      <c r="C89" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I87" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="J87" t="s">
-        <v>124</v>
-      </c>
-      <c r="K87" t="s">
-        <v>106</v>
-      </c>
-      <c r="N87">
-        <v>757.39374190000001</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" ht="40.5">
-      <c r="C88" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="J89" t="s">
         <v>86</v>
       </c>
-      <c r="K88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" s="6" customFormat="1" ht="27">
-      <c r="C89" s="7" t="s">
+      <c r="K89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="6" customFormat="1" ht="27">
+      <c r="C90" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="K89" s="6" t="s">
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="K90" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="2:14" s="10" customFormat="1" ht="40.5">
-      <c r="C90" s="11" t="s">
+    <row r="91" spans="2:14" s="10" customFormat="1" ht="40.5">
+      <c r="C91" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-    </row>
-    <row r="91" spans="2:14" ht="27">
-      <c r="C91" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J91" t="s">
-        <v>112</v>
-      </c>
+      <c r="D91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
     </row>
     <row r="92" spans="2:14" ht="27">
       <c r="C92" s="1" t="s">
         <v>198</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="J92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="2:14" ht="27">
       <c r="C93" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" ht="27">
+      <c r="C94" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" ht="40.5">
-      <c r="C94" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>201</v>
+      <c r="J94" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="2:14" ht="40.5">
       <c r="C95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" ht="40.5">
+      <c r="C96" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="2:14" s="25" customFormat="1">
-      <c r="C96" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96" s="26" t="s">
+    <row r="97" spans="3:11" s="25" customFormat="1">
+      <c r="C97" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G97" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G96" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-    </row>
-    <row r="97" spans="3:11" s="6" customFormat="1">
-      <c r="C97" s="7" t="s">
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+    </row>
+    <row r="98" spans="3:11" s="6" customFormat="1">
+      <c r="C98" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="3:11" s="6" customFormat="1" ht="27">
-      <c r="C98" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D98" s="7"/>
-      <c r="G98" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
     </row>
     <row r="99" spans="3:11" s="6" customFormat="1" ht="27">
       <c r="C99" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="G99" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" spans="3:11" ht="40.5">
-      <c r="C100" s="1" t="s">
+    <row r="100" spans="3:11" s="6" customFormat="1" ht="27">
+      <c r="C100" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="3:11" ht="40.5">
+      <c r="C101" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="K101" t="s">
         <v>175</v>
-      </c>
-      <c r="K100" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11">
-      <c r="D101" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E101" t="s">
-        <v>179</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="102" spans="3:11">
       <c r="D102" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E102" t="s">
+        <v>178</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11">
+      <c r="D103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="B1:B2"/>
@@ -3882,7 +3908,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>

--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="398">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>除以close去量纲,收益率不需要去量纲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -886,10 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每天开盘3分钟，5分钟总委买/（总委买+总委卖），算法同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直接用指数计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1365,12 +1357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_050_AMOUNT_BID_TOTAL_COMMISSION_RATIO_STD
-FCT_02_051_AMOUNT_BID_10_GRADE_COMMISSION_RATIO_STD
-FCT_02_052_AMOUNT_BID_5_GRADE_COMMISSION_RATIO_STD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FCT_02_053_AMOUNT_ASK_TOTAL_COMMISSION_RATIO_STD
 FCT_02_054_AMOUNT_ASK_10_GRADE_COMMISSION_RATIO_STD
 FCT_02_055_AMOUNT_ASK_5_GRADE_COMMISSION_RATIO_STD</t>
@@ -1420,11 +1406,6 @@
   </si>
   <si>
     <t>FCT_02_004_5_GRADE_COMMISSION_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_013_BID_LARGE_AMOUNT_BILL
-FCT_02_014_ASK_LARGE_AMOUNT_BILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1580,12 +1561,328 @@
     <t>FCT_02_061_AMOUNT_AND_1ST_COMMISSION_RATIO_STD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FCT_02_013_BID_LARGE_AMOUNT_BILL
+FCT_02_014_ASK_LARGE_AMOUNT_BILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_050_AMOUNT_BID_TOTAL_COMMISSION_RATIO_STD
+FCT_02_051_AMOUNT_BID_10_GRADE_COMMISSION_RATIO_STD
+FCT_02_052_AMOUNT_BID_5_GRADE_COMMISSION_RATIO_STD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready for modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>626.7771836
+-&gt; 212.3137676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单比值类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和前n天的平均值对比（n为参数可以是1，可以是5）</t>
+  </si>
+  <si>
+    <t>每天开盘n分钟总委买/（总委买+总委卖），算法同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n为参数，可以为5分钟，可以为10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总（个股成交额/个股成交笔数）
+如果上涨，累加该周期（成交额/成交笔数），如果下跌，累加该周期（成交额/成交笔数）。（（上涨成交额/上涨成交笔数）/（（下跌成交额/下跌成交笔数）+（上涨成交额/上涨成交笔数））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值越大代表大额成交占比越大
+计算上涨大单与下跌大单的比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这里汇总表示所有成分股求和？-yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该周期？- 按tick计算，两种累加方式：
+从开盘累加当天的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount','transaction_number','price','delta_price'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单买入/（大单卖出+大单买入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单个股票三天总成交额除以三天总成交笔数，得到平均每笔成交额，如果当前tick上涨且每笔成交额是大单，则算买入大单，如果下跌则卖出大单，分别计算当前tick点所有股票的买入大单卖出大单，最后计算（买入大单/买入大单+卖出大单）大于平均值2倍以上为大单，均值-2倍之间为中单，0.5-均值之间为小单，小于0.5倍为小小单，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+先累加成交再计算比值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（大单买入额-大单卖出额）/成交额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单买入/（中单卖出+中单买入）</t>
+  </si>
+  <si>
+    <t>中单买入额-中单卖出额/成交额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62行大单ma</t>
+  </si>
+  <si>
+    <t>ma作为参数20,50,100,300，500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,64,65,66行大单ma</t>
+  </si>
+  <si>
+    <t>ma作为参数20,50,100,300，500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62行大单std</t>
+  </si>
+  <si>
+    <t>63,64,65,66行大单std</t>
+  </si>
+  <si>
+    <t>std参数50,100,300，500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单因子与指数的相关系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数长度参数50,100,300,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中单因子与指数的相关系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数长度参数50,100,300,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单差分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62行大单因子的差分</t>
+  </si>
+  <si>
+    <t>差分参数20,50,100,300，500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,64,65,66行大单因子的差分</t>
+  </si>
+  <si>
+    <t>差分参数20,50,100,300，500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单比值类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的成交大单占比累计因子值与前n天同时段成交大单占比累计因子值的均值对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n作为参数，1天5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要存在？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的成交大单占比累计因子值与昨天同时段成交大单占比累计因子值对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段求均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的中单占比累计因子值与前n天同时段平均中单因子值对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n作为参数，1天5天</t>
+  </si>
+  <si>
+    <t>是否需要存在？</t>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大单时间类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62行大单因子上午和下午的比值</t>
+  </si>
+  <si>
+    <t>63,64,65,66行大单因子上午和下午的比值</t>
+  </si>
+  <si>
+    <t>62行中单因子上午和下午的比值</t>
+  </si>
+  <si>
+    <t>63,64,65,66行中单因子上午和下午的比值</t>
+  </si>
+  <si>
+    <t>62开盘30分钟大单因子占比值</t>
+  </si>
+  <si>
+    <t>63,64,65,66开盘30分钟大单因子占比值</t>
+  </si>
+  <si>
+    <t>62开盘30分钟中单因子占比值</t>
+  </si>
+  <si>
+    <t>63,64,65,66开盘30分钟中单因子占比值</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_019_DAILY_ACCUMULATED_LARGE_ORDER_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是分总，5档，10档？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和前n天的平均值对比（n为参数可以是1，可以是5）
+这里是除以n天平均值的意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,8 +1955,16 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1708,12 +2013,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1729,7 +2028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1877,20 +2176,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2204,11 +2494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K74" sqref="K74"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2229,40 +2519,40 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25">
       <c r="A1" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="44" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M1" s="41"/>
       <c r="N1" s="41"/>
@@ -2281,45 +2571,45 @@
       <c r="J2" s="43"/>
       <c r="K2" s="43"/>
       <c r="L2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="O2" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
       <c r="A3" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N3">
         <v>644.51521219999995</v>
@@ -2327,32 +2617,32 @@
     </row>
     <row r="4" spans="1:15" ht="54">
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N4">
         <v>43.214883800000003</v>
@@ -2361,7 +2651,7 @@
     <row r="5" spans="1:15" s="31" customFormat="1">
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D5" s="30"/>
       <c r="G5" s="30"/>
@@ -2371,7 +2661,7 @@
     <row r="6" spans="1:15" s="31" customFormat="1">
       <c r="B6" s="30"/>
       <c r="C6" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="30"/>
       <c r="G6" s="30"/>
@@ -2381,29 +2671,29 @@
     <row r="7" spans="1:15" s="8" customFormat="1" ht="40.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" s="8">
         <v>839.15660130000003</v>
@@ -2411,7 +2701,7 @@
     </row>
     <row r="8" spans="1:15" ht="40.5">
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2426,62 +2716,62 @@
         <v>18</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="243">
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>3749.9206562999998</v>
       </c>
       <c r="O9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27">
       <c r="B10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N10">
         <v>157.36384319999999</v>
@@ -2489,28 +2779,28 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>41.112527700000001</v>
@@ -2518,28 +2808,28 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="F12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>220</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12">
         <v>47.893977599999999</v>
@@ -2547,88 +2837,96 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F13" s="36">
         <v>50100300500</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>45.558922699999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="49" customFormat="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
+    <row r="14" spans="1:15" ht="40.5">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="243">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="15"/>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N16">
         <v>41.112527700000001</v>
@@ -2636,24 +2934,24 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="15"/>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <v>47.893977599999999</v>
@@ -2661,10 +2959,10 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F18" s="36">
         <v>50100300500</v>
@@ -2672,49 +2970,56 @@
       <c r="H18" s="27"/>
       <c r="I18" s="15"/>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N18">
         <v>45.558922699999997</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="31" customFormat="1">
+    <row r="19" spans="2:14" s="31" customFormat="1" ht="27">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="32"/>
+      <c r="G19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>218</v>
+      </c>
       <c r="I19" s="33"/>
+      <c r="J19" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="2:14" ht="108">
       <c r="B20" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N20">
         <v>2259.9811599999998</v>
@@ -2723,21 +3028,21 @@
     <row r="21" spans="2:14" ht="27">
       <c r="B21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N21">
         <v>170.12312610000001</v>
@@ -2745,110 +3050,115 @@
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F24" s="36">
         <v>50100300500</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="27">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F25" s="29"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>218</v>
+      </c>
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="2:14" ht="108">
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N26">
         <v>2259.1909943999999</v>
@@ -2856,54 +3166,54 @@
     </row>
     <row r="27" spans="2:14" ht="27">
       <c r="B27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="15"/>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="15"/>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F29" s="36">
         <v>50100300500</v>
@@ -2911,28 +3221,34 @@
       <c r="H29" s="27"/>
       <c r="I29" s="15"/>
       <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30"/>
+      <c r="G30" t="s">
+        <v>331</v>
+      </c>
+      <c r="H30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30" t="s">
         <v>59</v>
       </c>
-      <c r="K29" t="s">
-        <v>276</v>
-      </c>
-      <c r="L29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" s="31" customFormat="1">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="2:14" ht="108">
       <c r="B31" s="1" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2944,42 +3260,45 @@
         <v>8</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>19</v>
+        <v>315</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1"/>
       <c r="G32" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J32" s="46"/>
       <c r="K32" s="45"/>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="27">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -2990,116 +3309,116 @@
     <row r="34" spans="1:14" ht="27">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="40.5">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="40.5">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:14" s="6" customFormat="1" ht="27">
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="6" customFormat="1" ht="27">
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:14" s="6" customFormat="1">
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="40.5">
       <c r="B40" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40" s="45" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="27">
       <c r="B41" s="1"/>
       <c r="G41" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
       <c r="L41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N41">
         <v>205.99607879999999</v>
@@ -3107,24 +3426,24 @@
     </row>
     <row r="42" spans="1:14" ht="40.5">
       <c r="B42" s="1" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N42">
         <v>196.18039340000001</v>
@@ -3132,39 +3451,39 @@
     </row>
     <row r="43" spans="1:14" ht="40.5">
       <c r="B43" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="27">
       <c r="B44" s="1"/>
       <c r="G44" s="27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I44" s="37"/>
       <c r="J44" s="45"/>
       <c r="K44" s="45"/>
       <c r="L44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N44">
         <v>199.093568</v>
@@ -3172,24 +3491,24 @@
     </row>
     <row r="45" spans="1:14" ht="40.5">
       <c r="B45" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45" t="s">
         <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N45">
         <v>199.33176499999999</v>
@@ -3197,1217 +3516,1519 @@
     </row>
     <row r="46" spans="1:14" ht="40.5">
       <c r="B46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46" t="s">
         <v>19</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N46">
         <v>173.53085709999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="256.5">
+    <row r="47" spans="1:14" s="20" customFormat="1" ht="27">
       <c r="A47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="20" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A48" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="F48" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="6" customFormat="1" ht="67.5">
+      <c r="C49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" s="6" customFormat="1">
+      <c r="C50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" s="6" customFormat="1">
+      <c r="C51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" ht="90.6" customHeight="1">
+      <c r="A52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J52" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N52">
+        <v>955.34715940000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" ht="122.45" customHeight="1">
+      <c r="C53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1" ht="34.9" customHeight="1">
+      <c r="C54" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="1" customFormat="1" ht="40.9" customHeight="1">
+      <c r="C55" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="34.9" customHeight="1">
+      <c r="C56" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="1" customFormat="1" ht="28.9" customHeight="1">
+      <c r="C57" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="C58" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="C59" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="C60" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="C61" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="C62" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="B63" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="C64" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="I64"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="C65" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="I65"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" ht="27">
+      <c r="B66" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I66" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="27">
+      <c r="C67" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I67" t="s">
+        <v>375</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="27">
+      <c r="C68" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I68" t="s">
+        <v>380</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="B69" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="I69"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="C70" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="C71" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="C72" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="C73" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="C74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="C75" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="C76" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="C77" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="C78" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="C79" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:14" ht="256.5">
+      <c r="A80" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J80" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K80" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="L80" t="s">
+        <v>115</v>
+      </c>
+      <c r="N80">
+        <v>4657.8898304000004</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="27">
+      <c r="B81" s="1"/>
+      <c r="G81" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N81">
+        <v>188.62933050000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="49.9" customHeight="1">
+      <c r="B82" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="16" t="s">
+      <c r="D82" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J82" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" ht="49.9" customHeight="1">
+      <c r="B83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J83" t="s">
+        <v>58</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" ht="40.5">
+      <c r="B84" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J84" t="s">
+        <v>58</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M84" t="s">
+        <v>199</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" ht="40.5">
+      <c r="B85" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="17"/>
+      <c r="J85" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" ht="40.5">
+      <c r="B86" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="17"/>
+      <c r="J86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" ht="54">
+      <c r="B87" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N87">
+        <v>99.582290900000004</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" ht="54">
+      <c r="B88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="H88" s="15"/>
+      <c r="J88" t="s">
+        <v>58</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" ht="54">
+      <c r="B89" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="H89" s="15"/>
+      <c r="J89" t="s">
+        <v>58</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="1" customFormat="1" ht="67.5">
+      <c r="B90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="15"/>
+      <c r="J90" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K47" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="L47" t="s">
-        <v>116</v>
-      </c>
-      <c r="N47">
-        <v>4657.8898304000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="27">
-      <c r="B48" s="1"/>
-      <c r="G48" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N48">
-        <v>188.62933050000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" ht="49.9" customHeight="1">
-      <c r="B49" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="K90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="2:14" s="1" customFormat="1" ht="108">
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="49.9" customHeight="1">
-      <c r="B50" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J50" t="s">
-        <v>59</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" ht="27">
-      <c r="B51" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M51" t="s">
-        <v>201</v>
-      </c>
-      <c r="N51">
-        <v>626.77718359999994</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="40.5">
-      <c r="B52" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="17"/>
-      <c r="J52" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="40.5">
-      <c r="B53" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="17"/>
-      <c r="J53" t="s">
-        <v>59</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="54">
-      <c r="B54" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N54">
-        <v>99.582290900000004</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="54">
-      <c r="B55" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="H55" s="15"/>
-      <c r="J55" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="54">
-      <c r="B56" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="H56" s="15"/>
-      <c r="J56" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" s="1" customFormat="1" ht="67.5">
-      <c r="B57" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I57" s="15"/>
-      <c r="J57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N57"/>
-    </row>
-    <row r="58" spans="2:14" s="1" customFormat="1" ht="108">
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="K91" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" s="9" customFormat="1">
+      <c r="C92" s="10"/>
+      <c r="D92" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" s="9" customFormat="1">
-      <c r="C59" s="10"/>
-      <c r="D59" s="11" t="s">
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" spans="2:14" s="9" customFormat="1">
+      <c r="C93" s="10"/>
+      <c r="D93" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-    </row>
-    <row r="60" spans="2:14" s="9" customFormat="1">
-      <c r="C60" s="10"/>
-      <c r="D60" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-    </row>
-    <row r="63" spans="2:14" s="6" customFormat="1" ht="40.5">
-      <c r="C63" s="7" t="s">
+      <c r="G93" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+    </row>
+    <row r="96" spans="2:14" s="6" customFormat="1" ht="40.5">
+      <c r="C96" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D96" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" s="20" customFormat="1" ht="27">
-      <c r="C64" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K64" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="20" customFormat="1" ht="27">
-      <c r="A65" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="6" customFormat="1" ht="67.5">
-      <c r="C66" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="G66" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:14" s="6" customFormat="1">
-      <c r="C67" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:14" s="6" customFormat="1">
-      <c r="C68" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:14" ht="81">
-      <c r="A69" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J69" t="s">
-        <v>135</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N69">
-        <v>955.34715940000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="20" customFormat="1" ht="27">
-      <c r="C70" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="8" customFormat="1" ht="27">
-      <c r="A71" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="G71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="N71" s="8">
-        <v>514.53126239999995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" s="9" customFormat="1" ht="27">
-      <c r="C72" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="G72" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="27">
-      <c r="B74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J74" t="s">
-        <v>59</v>
-      </c>
-      <c r="K74" t="s">
-        <v>275</v>
-      </c>
-      <c r="L74" t="s">
-        <v>116</v>
-      </c>
-      <c r="M74" t="s">
-        <v>201</v>
-      </c>
-      <c r="N74">
-        <v>369.89989050000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="24" customFormat="1">
-      <c r="C75" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="K75" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="3" customFormat="1" ht="40.5">
-      <c r="B76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K76" t="s">
-        <v>19</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1603.5969289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="3" customFormat="1" ht="27">
-      <c r="B77" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K77" t="s">
-        <v>19</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N77" s="3">
-        <v>1620.3955997999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" s="3" customFormat="1" ht="40.5">
-      <c r="B78" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K78" t="s">
-        <v>19</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N78" s="3">
-        <v>1687.0529958</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="3" customFormat="1" ht="40.5">
-      <c r="B79" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K79" t="s">
-        <v>19</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N79" s="3">
-        <v>6276.4550690999904</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="3" customFormat="1" ht="243">
-      <c r="B80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K80" t="s">
-        <v>19</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N80" s="3">
-        <v>6252.9546962000004</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" ht="40.5">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" s="23" customFormat="1" ht="40.5">
-      <c r="B82" s="22"/>
-      <c r="C82" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="G82" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="K82" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" s="3" customFormat="1">
-      <c r="C83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="K83" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" ht="27">
-      <c r="C84" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" ht="27">
-      <c r="C85" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" ht="27">
-      <c r="C86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K86" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" ht="27">
-      <c r="C87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K87" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14">
-      <c r="C88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K88" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" s="9" customFormat="1" ht="40.5">
-      <c r="C89" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" s="9" customFormat="1" ht="54">
-      <c r="C90" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" s="24" customFormat="1" ht="40.5">
-      <c r="C91" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-    </row>
-    <row r="92" spans="2:14" s="24" customFormat="1">
-      <c r="C92" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-    </row>
-    <row r="93" spans="2:14">
-      <c r="B93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I93" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="J93" t="s">
-        <v>97</v>
-      </c>
-      <c r="K93" t="s">
-        <v>115</v>
-      </c>
-      <c r="N93">
-        <v>717.36039059999996</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14">
-      <c r="B94" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I94" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="J94" t="s">
-        <v>97</v>
-      </c>
-      <c r="K94" t="s">
-        <v>115</v>
-      </c>
-      <c r="N94">
-        <v>757.39374190000001</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" ht="40.5">
-      <c r="C95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J95" t="s">
-        <v>97</v>
-      </c>
-      <c r="K95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" s="6" customFormat="1" ht="27">
-      <c r="C96" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="81">
+      <c r="A97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H97" s="13"/>
+      <c r="I97" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N97">
+        <v>955.34715940000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="20" customFormat="1" ht="27">
+      <c r="C98" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="8" customFormat="1" ht="27">
+      <c r="A99" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N99" s="8">
+        <v>514.53126239999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="9" customFormat="1" ht="27">
+      <c r="C100" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" s="9" customFormat="1" ht="54">
-      <c r="C97" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="1:14" ht="27">
-      <c r="C98" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="40.5">
-      <c r="C99" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="27">
-      <c r="C100" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="40.5">
-      <c r="C101" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="40.5">
+      <c r="K100" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="27">
+      <c r="B102" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" s="1" t="s">
-        <v>47</v>
+        <v>213</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J102" t="s">
+        <v>58</v>
+      </c>
+      <c r="K102" t="s">
+        <v>273</v>
+      </c>
+      <c r="L102" t="s">
+        <v>115</v>
+      </c>
+      <c r="M102" t="s">
+        <v>199</v>
+      </c>
+      <c r="N102">
+        <v>369.89989050000003</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="24" customFormat="1">
       <c r="C103" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G103" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-    </row>
-    <row r="104" spans="1:14" s="6" customFormat="1">
-      <c r="C104" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" spans="1:14" s="6" customFormat="1" ht="27">
-      <c r="C105" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="G105" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="1:14" s="6" customFormat="1" ht="27">
-      <c r="C106" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="1:14" ht="54">
-      <c r="C107" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E107" t="s">
-        <v>161</v>
-      </c>
-      <c r="J107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="D108" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E108" t="s">
-        <v>165</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="D109" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="24" customFormat="1" ht="40.5">
-      <c r="C110" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H110" s="25"/>
-      <c r="I110" s="26"/>
-      <c r="K110" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" ht="27">
-      <c r="A111" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H111" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="3" customFormat="1" ht="40.5">
+      <c r="B104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N104" s="3">
+        <v>1603.5969289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="3" customFormat="1" ht="27">
+      <c r="B105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N105" s="3">
+        <v>1620.3955997999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="3" customFormat="1" ht="40.5">
+      <c r="B106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K106" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N106" s="3">
+        <v>1687.0529958</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="3" customFormat="1" ht="40.5">
+      <c r="B107" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K107" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N107" s="3">
+        <v>6276.4550690999904</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="3" customFormat="1" ht="243">
+      <c r="B108" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K108" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N108" s="3">
+        <v>6252.9546962000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="40.5">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M111" t="s">
-        <v>201</v>
-      </c>
-      <c r="N111" s="1">
-        <v>566.8946158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="1" customFormat="1">
-      <c r="B112" s="1" t="s">
-        <v>305</v>
+      <c r="K109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="23" customFormat="1" ht="40.5">
+      <c r="B110" s="22"/>
+      <c r="C110" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="22"/>
+      <c r="G110" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K110" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="3" customFormat="1">
+      <c r="C111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="K111" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="27">
+      <c r="C112" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N112">
+      <c r="K112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" ht="27">
+      <c r="C113" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" ht="27">
+      <c r="C114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" ht="27">
+      <c r="C115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K115" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="C116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" s="9" customFormat="1" ht="40.5">
+      <c r="C117" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" s="9" customFormat="1" ht="54">
+      <c r="C118" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" s="24" customFormat="1" ht="40.5">
+      <c r="C119" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+    </row>
+    <row r="120" spans="2:14" s="24" customFormat="1">
+      <c r="C120" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J121" t="s">
+        <v>96</v>
+      </c>
+      <c r="K121" t="s">
+        <v>114</v>
+      </c>
+      <c r="N121">
+        <v>717.36039059999996</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="B122" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I122" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J122" t="s">
+        <v>96</v>
+      </c>
+      <c r="K122" t="s">
+        <v>114</v>
+      </c>
+      <c r="N122">
+        <v>757.39374190000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" ht="40.5">
+      <c r="C123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J123" t="s">
+        <v>96</v>
+      </c>
+      <c r="K123" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" s="6" customFormat="1" ht="27">
+      <c r="C124" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" s="9" customFormat="1" ht="54">
+      <c r="C125" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="2:14" ht="27">
+      <c r="C126" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" ht="40.5">
+      <c r="C127" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" ht="27">
+      <c r="C128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="40.5">
+      <c r="C129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="40.5">
+      <c r="C130" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="24" customFormat="1">
+      <c r="C131" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+    </row>
+    <row r="132" spans="1:14" s="6" customFormat="1">
+      <c r="C132" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="1:14" s="6" customFormat="1" ht="27">
+      <c r="C133" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="G133" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="1:14" s="6" customFormat="1" ht="27">
+      <c r="C134" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="1:14" ht="54">
+      <c r="C135" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" t="s">
+        <v>160</v>
+      </c>
+      <c r="J135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="D136" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" t="s">
+        <v>164</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="D137" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="24" customFormat="1" ht="40.5">
+      <c r="C138" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H138" s="25"/>
+      <c r="I138" s="26"/>
+      <c r="K138" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="1" customFormat="1" ht="27">
+      <c r="A139" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H139" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M139" t="s">
+        <v>199</v>
+      </c>
+      <c r="N139" s="1">
+        <v>566.8946158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="1" customFormat="1">
+      <c r="B140" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N140">
         <v>1130.118056</v>
       </c>
     </row>
-    <row r="113" spans="2:14" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B113" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C113" s="4" t="s">
+    <row r="141" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B141" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="8" t="s">
+      <c r="D141" s="4"/>
+      <c r="E141" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H113" s="4"/>
-      <c r="I113" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="J113" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K113" s="8" t="s">
+      <c r="G141" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H141" s="4"/>
+      <c r="I141" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K141" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L113" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M113" t="s">
-        <v>201</v>
-      </c>
-      <c r="N113" s="8">
+      <c r="L141" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M141" t="s">
+        <v>199</v>
+      </c>
+      <c r="N141" s="8">
         <v>457.108951399999</v>
       </c>
     </row>
-    <row r="114" spans="2:14" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B114" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C114" s="4" t="s">
+    <row r="142" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B142" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="G142" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L142" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D114" s="4"/>
-      <c r="G114" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H114" s="4"/>
-      <c r="I114" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L114" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="M114"/>
+      <c r="M142"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="K43:K44"/>
     <mergeCell ref="J40:J41"/>
@@ -4454,7 +5075,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>

--- a/docs/因子/现货因子.xlsx
+++ b/docs/因子/现货因子.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="402">
   <si>
     <t>总委买/（总委买+总委卖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -824,12 +824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_032_TOTAL_COMMISSION_VOLATILITY_RATIO
-FCT_02_033_10_GRADE_COMMISSION_VOLATILITY_RATIO
-FCT_02_034_5_GRADE_COMMISSION_VOLATILITY_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算5天成交额的mean和std，对于股票维度两种思路：先求占比，再求平均（这样不考虑权重）；先求大单和交易额之和，再求占比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1535,10 +1529,6 @@
   </si>
   <si>
     <t>前买卖5档，合计委买超过三天均值的1.5倍，先计算各个股票的大单，再累加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCT_02_056_AMOUNT_AND_COMMISSION_RATIO_MEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1673,10 +1663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算单个股票三天总成交额除以三天总成交笔数，得到平均每笔成交额，如果当前tick上涨且每笔成交额是大单，则算买入大单，如果下跌则卖出大单，分别计算当前tick点所有股票的买入大单卖出大单，最后计算（买入大单/买入大单+卖出大单）大于平均值2倍以上为大单，均值-2倍之间为中单，0.5-均值之间为小单，小于0.5倍为小小单，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 先累加成交再计算比值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1853,10 +1839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCT_02_019_DAILY_ACCUMULATED_LARGE_ORDER_RATIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>还是分总，5档，10档？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1875,6 +1857,41 @@
   <si>
     <t>和前n天的平均值对比（n为参数可以是1，可以是5）
 这里是除以n天平均值的意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>955.3471594
+-》 221.46818390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready for modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算单个股票三天总成交额除以三天总成交笔数，得到平均每笔成交额，如果当前tick上涨且每笔成交额是大单，则算买入大单，如果下跌则卖出大单，分别计算当前tick点所有股票的买入大单卖出大单，最后计算（买入大单/买入大单+卖出大单）大于平均值2倍以上为大单，均值-2倍之间为中单，0.5-均值之间为小单，小于0.5倍为小小单，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_032_TOTAL_COMMISSION_VOLATILITY_RATIO
+FCT_02_033_10_GRADE_COMMISSION_VOLATILITY_RATIO
+FCT_02_034_5_GRADE_COMMISSION_VOLATILITY_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_062_LARGE_ORDER_BUYING_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT_02_056_AMOUNT_AND_COMMISSION_RATIO_MEAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2152,6 +2169,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2175,12 +2198,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2496,9 +2513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2518,58 +2535,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25">
-      <c r="A1" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="14.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="5" t="s">
         <v>85</v>
       </c>
@@ -2580,21 +2597,21 @@
         <v>63</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5">
       <c r="A3" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>153</v>
@@ -2609,7 +2626,7 @@
         <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N3">
         <v>644.51521219999995</v>
@@ -2617,19 +2634,19 @@
     </row>
     <row r="4" spans="1:15" ht="54">
       <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" t="s">
-        <v>265</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" t="s">
@@ -2642,7 +2659,7 @@
         <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N4">
         <v>43.214883800000003</v>
@@ -2651,7 +2668,7 @@
     <row r="5" spans="1:15" s="31" customFormat="1">
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" s="30"/>
       <c r="G5" s="30"/>
@@ -2661,7 +2678,7 @@
     <row r="6" spans="1:15" s="31" customFormat="1">
       <c r="B6" s="30"/>
       <c r="C6" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="30"/>
       <c r="G6" s="30"/>
@@ -2671,10 +2688,10 @@
     <row r="7" spans="1:15" s="8" customFormat="1" ht="40.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2701,7 +2718,7 @@
     </row>
     <row r="8" spans="1:15" ht="40.5">
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2727,22 +2744,22 @@
     </row>
     <row r="9" spans="1:15" ht="243">
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>273</v>
+      <c r="K9" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="L9" t="s">
         <v>86</v>
@@ -2751,27 +2768,27 @@
         <v>3749.9206562999998</v>
       </c>
       <c r="O9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27">
       <c r="B10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H10" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
       <c r="L10" t="s">
         <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N10">
         <v>157.36384319999999</v>
@@ -2779,25 +2796,25 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L11" t="s">
         <v>86</v>
@@ -2808,25 +2825,25 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J12" t="s">
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L12" t="s">
         <v>86</v>
@@ -2837,25 +2854,25 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F13" s="36">
         <v>50100300500</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L13" t="s">
         <v>86</v>
@@ -2867,20 +2884,20 @@
     <row r="14" spans="1:15" ht="40.5">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="243">
@@ -2888,7 +2905,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="15" t="s">
@@ -2898,24 +2915,24 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
         <v>108</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
       <c r="B16" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="15"/>
@@ -2923,7 +2940,7 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L16" t="s">
         <v>86</v>
@@ -2934,13 +2951,13 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="15"/>
@@ -2948,7 +2965,7 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L17" t="s">
         <v>86</v>
@@ -2959,10 +2976,10 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F18" s="36">
         <v>50100300500</v>
@@ -2973,7 +2990,7 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L18" t="s">
         <v>86</v>
@@ -2985,14 +3002,14 @@
     <row r="19" spans="2:14" s="31" customFormat="1" ht="27">
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="30"/>
       <c r="G19" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="1" t="s">
@@ -3001,22 +3018,22 @@
     </row>
     <row r="20" spans="2:14" ht="108">
       <c r="B20" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="45" t="s">
-        <v>274</v>
+      <c r="K20" s="47" t="s">
+        <v>273</v>
       </c>
       <c r="L20" t="s">
         <v>86</v>
@@ -3028,21 +3045,21 @@
     <row r="21" spans="2:14" ht="27">
       <c r="B21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+        <v>194</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
       <c r="L21" t="s">
         <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N21">
         <v>170.12312610000001</v>
@@ -3050,25 +3067,25 @@
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L22" t="s">
         <v>86</v>
@@ -3076,25 +3093,25 @@
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L23" t="s">
         <v>86</v>
@@ -3102,25 +3119,25 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F24" s="36">
         <v>50100300500</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L24" t="s">
         <v>86</v>
@@ -3129,14 +3146,14 @@
     <row r="25" spans="2:14" ht="27">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I25" s="15"/>
     </row>
@@ -3145,7 +3162,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="15" t="s">
@@ -3155,7 +3172,7 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
         <v>108</v>
@@ -3166,13 +3183,13 @@
     </row>
     <row r="27" spans="2:14" ht="27">
       <c r="B27" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="15"/>
@@ -3180,7 +3197,7 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s">
         <v>86</v>
@@ -3188,13 +3205,13 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="15"/>
@@ -3202,7 +3219,7 @@
         <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
         <v>86</v>
@@ -3210,10 +3227,10 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="36">
         <v>50100300500</v>
@@ -3224,7 +3241,7 @@
         <v>58</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
         <v>86</v>
@@ -3232,14 +3249,14 @@
     </row>
     <row r="30" spans="2:14">
       <c r="C30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30"/>
       <c r="G30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
@@ -3248,7 +3265,7 @@
     </row>
     <row r="31" spans="2:14" ht="108">
       <c r="B31" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -3260,45 +3277,45 @@
         <v>8</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="45" t="s">
-        <v>315</v>
+      <c r="K31" s="47" t="s">
+        <v>314</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="1"/>
       <c r="G32" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="45"/>
+        <v>194</v>
+      </c>
+      <c r="J32" s="48"/>
+      <c r="K32" s="47"/>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="27">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3309,7 +3326,7 @@
     <row r="34" spans="1:14" ht="27">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3324,10 +3341,10 @@
     <row r="35" spans="1:14" ht="40.5">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>59</v>
@@ -3339,7 +3356,7 @@
     <row r="36" spans="1:14" ht="40.5">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -3384,41 +3401,41 @@
     </row>
     <row r="40" spans="1:14" ht="40.5">
       <c r="B40" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>268</v>
-      </c>
       <c r="I40" s="14"/>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K40" s="45" t="s">
-        <v>328</v>
+      <c r="K40" s="47" t="s">
+        <v>326</v>
       </c>
       <c r="L40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="27">
       <c r="B41" s="1"/>
       <c r="G41" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I41" s="35"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N41">
         <v>205.99607879999999</v>
@@ -3426,24 +3443,24 @@
     </row>
     <row r="42" spans="1:14" ht="40.5">
       <c r="B42" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I42" s="40"/>
       <c r="J42" t="s">
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N42">
         <v>196.18039340000001</v>
@@ -3451,37 +3468,37 @@
     </row>
     <row r="43" spans="1:14" ht="40.5">
       <c r="B43" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I43" s="14"/>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="45" t="s">
-        <v>315</v>
+      <c r="K43" s="47" t="s">
+        <v>395</v>
       </c>
       <c r="L43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="27">
       <c r="B44" s="1"/>
       <c r="G44" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I44" s="37"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
       <c r="L44" t="s">
         <v>86</v>
       </c>
@@ -3491,24 +3508,24 @@
     </row>
     <row r="45" spans="1:14" ht="40.5">
       <c r="B45" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" t="s">
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N45">
         <v>199.33176499999999</v>
@@ -3516,7 +3533,7 @@
     </row>
     <row r="46" spans="1:14" ht="40.5">
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>399</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>42</v>
@@ -3524,8 +3541,8 @@
       <c r="G46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H46" s="1">
-        <v>1</v>
+      <c r="H46" s="27" t="s">
+        <v>397</v>
       </c>
       <c r="J46" t="s">
         <v>58</v>
@@ -3534,7 +3551,7 @@
         <v>19</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N46">
         <v>173.53085709999999</v>
@@ -3542,35 +3559,35 @@
     </row>
     <row r="47" spans="1:14" s="20" customFormat="1" ht="27">
       <c r="A47" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="20" t="s">
         <v>60</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A48" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D48" s="21"/>
       <c r="F48" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -3578,7 +3595,7 @@
         <v>102</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1" ht="67.5">
@@ -3587,7 +3604,7 @@
       </c>
       <c r="D49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -3616,120 +3633,126 @@
     </row>
     <row r="52" spans="1:14" ht="90.6" customHeight="1">
       <c r="A52" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>392</v>
+        <v>195</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J52" t="s">
         <v>338</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="K52" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J52" t="s">
+      <c r="N52" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" ht="122.45" customHeight="1">
+      <c r="B53" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="N52">
-        <v>955.34715940000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" ht="122.45" customHeight="1">
-      <c r="C53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="1" customFormat="1" ht="34.9" customHeight="1">
       <c r="C54" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="1" customFormat="1" ht="40.9" customHeight="1">
       <c r="C55" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="1" customFormat="1" ht="34.9" customHeight="1">
       <c r="C56" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="1" customFormat="1" ht="28.9" customHeight="1">
       <c r="C57" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="C58" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="C59" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="C60" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="C61" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="C62" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="B63" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="B63" s="49" t="s">
-        <v>362</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -3739,10 +3762,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="C64" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F64" s="1"/>
       <c r="I64"/>
@@ -3750,69 +3773,69 @@
     </row>
     <row r="65" spans="1:14">
       <c r="C65" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F65" s="1"/>
       <c r="I65"/>
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:14" ht="27">
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="I66" t="s">
         <v>368</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I66" t="s">
-        <v>371</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="27">
       <c r="C67" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I67" t="s">
+        <v>372</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I67" t="s">
-        <v>375</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="27">
       <c r="C68" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I68" t="s">
         <v>377</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:14">
+      <c r="B69" s="42" t="s">
         <v>379</v>
-      </c>
-      <c r="I68" t="s">
-        <v>380</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="B69" s="50" t="s">
-        <v>382</v>
       </c>
       <c r="F69" s="1"/>
       <c r="I69"/>
@@ -3820,7 +3843,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="C70" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D70"/>
       <c r="G70"/>
@@ -3829,7 +3852,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="C71" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D71"/>
       <c r="G71"/>
@@ -3838,7 +3861,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="C72" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D72"/>
       <c r="G72"/>
@@ -3847,7 +3870,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="C73" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D73"/>
       <c r="G73"/>
@@ -3856,7 +3879,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="C74" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D74"/>
       <c r="G74"/>
@@ -3865,7 +3888,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="C75" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D75"/>
       <c r="G75"/>
@@ -3874,7 +3897,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="C76" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D76"/>
       <c r="G76"/>
@@ -3883,7 +3906,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="C77" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D77"/>
       <c r="G77"/>
@@ -3892,7 +3915,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="C78" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D78"/>
       <c r="G78"/>
@@ -3901,7 +3924,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="C79" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D79"/>
       <c r="G79"/>
@@ -3910,10 +3933,10 @@
     </row>
     <row r="80" spans="1:14" ht="256.5">
       <c r="A80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>87</v>
@@ -3925,15 +3948,15 @@
         <v>116</v>
       </c>
       <c r="H80" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K80" s="45" t="s">
+      <c r="K80" s="47" t="s">
         <v>91</v>
       </c>
       <c r="L80" t="s">
@@ -3946,14 +3969,14 @@
     <row r="81" spans="2:14" ht="27">
       <c r="B81" s="1"/>
       <c r="G81" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I81" s="16"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
       <c r="L81" s="1" t="s">
         <v>115</v>
       </c>
@@ -3963,18 +3986,18 @@
     </row>
     <row r="82" spans="2:14" ht="49.9" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J82" t="s">
         <v>58</v>
@@ -3988,18 +4011,18 @@
     </row>
     <row r="83" spans="2:14" ht="49.9" customHeight="1">
       <c r="B83" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J83" t="s">
         <v>58</v>
@@ -4013,10 +4036,10 @@
     </row>
     <row r="84" spans="2:14" ht="40.5">
       <c r="B84" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>68</v>
@@ -4025,7 +4048,7 @@
         <v>69</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>128</v>
@@ -4040,21 +4063,21 @@
         <v>115</v>
       </c>
       <c r="M84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="40.5">
       <c r="B85" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
@@ -4071,13 +4094,13 @@
     </row>
     <row r="86" spans="2:14" ht="40.5">
       <c r="B86" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
@@ -4094,7 +4117,7 @@
     </row>
     <row r="87" spans="2:14" ht="54">
       <c r="B87" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>110</v>
@@ -4123,13 +4146,13 @@
     </row>
     <row r="88" spans="2:14" ht="54">
       <c r="B88" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="F88" s="1"/>
       <c r="H88" s="15"/>
@@ -4145,13 +4168,13 @@
     </row>
     <row r="89" spans="2:14" ht="54">
       <c r="B89" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F89" s="1"/>
       <c r="H89" s="15"/>
@@ -4167,17 +4190,17 @@
     </row>
     <row r="90" spans="2:14" s="1" customFormat="1" ht="67.5">
       <c r="B90" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N90"/>
     </row>
@@ -4195,7 +4218,7 @@
         <v>59</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="2:14" s="9" customFormat="1">
@@ -4245,10 +4268,10 @@
     </row>
     <row r="97" spans="1:14" ht="81">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>67</v>
@@ -4285,18 +4308,18 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K98" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="8" customFormat="1" ht="27">
       <c r="A99" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>80</v>
@@ -4341,10 +4364,10 @@
     </row>
     <row r="102" spans="1:14" ht="27">
       <c r="B102" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -4359,13 +4382,13 @@
         <v>58</v>
       </c>
       <c r="K102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L102" t="s">
         <v>115</v>
       </c>
       <c r="M102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N102">
         <v>369.89989050000003</v>
@@ -4380,7 +4403,7 @@
         <v>8</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K103" s="24" t="s">
         <v>29</v>
@@ -4535,10 +4558,10 @@
     <row r="109" spans="1:14" ht="40.5">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>59</v>
@@ -4554,7 +4577,7 @@
       </c>
       <c r="D110" s="22"/>
       <c r="G110" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
@@ -4582,27 +4605,27 @@
     </row>
     <row r="112" spans="1:14" ht="27">
       <c r="C112" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="2:14" ht="27">
       <c r="C113" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="2:14" ht="27">
@@ -4613,7 +4636,7 @@
         <v>59</v>
       </c>
       <c r="K114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="2:14" ht="27">
@@ -4624,7 +4647,7 @@
         <v>59</v>
       </c>
       <c r="K115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="2:14">
@@ -4632,13 +4655,13 @@
         <v>36</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="2:14" s="9" customFormat="1" ht="40.5">
@@ -4685,7 +4708,7 @@
     </row>
     <row r="120" spans="2:14" s="24" customFormat="1">
       <c r="C120" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D120" s="25"/>
       <c r="G120" s="25"/>
@@ -4695,7 +4718,7 @@
     </row>
     <row r="121" spans="2:14">
       <c r="B121" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>97</v>
@@ -4715,7 +4738,7 @@
     </row>
     <row r="122" spans="2:14">
       <c r="B122" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>98</v>
@@ -4772,7 +4795,7 @@
     </row>
     <row r="126" spans="2:14" ht="27">
       <c r="C126" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>103</v>
@@ -4783,10 +4806,10 @@
     </row>
     <row r="127" spans="2:14" ht="40.5">
       <c r="C127" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K127" t="s">
         <v>102</v>
@@ -4808,7 +4831,7 @@
         <v>53</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="40.5">
@@ -4821,10 +4844,10 @@
         <v>106</v>
       </c>
       <c r="D131" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G131" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="G131" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
@@ -4860,35 +4883,35 @@
     </row>
     <row r="135" spans="1:14" ht="54">
       <c r="C135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" t="s">
         <v>159</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="J135" t="s">
         <v>160</v>
-      </c>
-      <c r="J135" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="D136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E136" t="s">
         <v>163</v>
       </c>
-      <c r="E136" t="s">
+      <c r="G136" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="D137" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="24" customFormat="1" ht="40.5">
@@ -4909,10 +4932,10 @@
     </row>
     <row r="139" spans="1:14" s="1" customFormat="1" ht="27">
       <c r="A139" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>70</v>
@@ -4921,7 +4944,7 @@
         <v>129</v>
       </c>
       <c r="H139" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>130</v>
@@ -4936,7 +4959,7 @@
         <v>86</v>
       </c>
       <c r="M139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N139" s="1">
         <v>566.8946158</v>
@@ -4944,7 +4967,7 @@
     </row>
     <row r="140" spans="1:14" s="1" customFormat="1">
       <c r="B140" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>88</v>
@@ -4967,7 +4990,7 @@
     </row>
     <row r="141" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="B141" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>2</v>
@@ -4977,11 +5000,11 @@
         <v>8</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>58</v>
@@ -4993,7 +5016,7 @@
         <v>115</v>
       </c>
       <c r="M141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N141" s="8">
         <v>457.108951399999</v>
@@ -5001,10 +5024,10 @@
     </row>
     <row r="142" spans="1:14" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="B142" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D142" s="4"/>
       <c r="G142" s="4" t="s">
@@ -5012,7 +5035,7 @@
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J142" s="8" t="s">
         <v>58</v>
@@ -5021,7 +5044,7 @@
         <v>19</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M142"/>
     </row>
@@ -5074,402 +5097,402 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
+      <c r="A1" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
